--- a/static/devopsquestionsdata.xlsx
+++ b/static/devopsquestionsdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nani Pattapu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srijibbhattacharyya/PycharmProjects/DoE_App_Backend.srijib.bhattacharyya/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FCB504-0118-4710-AAB7-A7D85325A8F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7A2AE4-1B5B-CF47-947A-82FA8392920E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1350,9 +1350,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,16 +1364,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,14 +1434,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2611,46 +2608,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ707"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="T33" colorId="8" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53:I55"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.8984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="85.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="85.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="31.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.8984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="45" style="2" customWidth="1"/>
     <col min="14" max="14" width="24" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.8984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="67.09765625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="23.09765625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.8984375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="119.3984375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18.3984375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.8984375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="22.8984375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.09765625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.8984375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="23.59765625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="20.8984375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="10.8984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="67.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="119.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="20.83203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="2" customWidth="1"/>
     <col min="28" max="28" width="17.5" style="2" customWidth="1"/>
-    <col min="29" max="78" width="10.8984375" style="2" customWidth="1"/>
-    <col min="79" max="79" width="10.8984375" style="1" customWidth="1"/>
-    <col min="80" max="16384" width="10.8984375" style="1"/>
+    <col min="29" max="78" width="10.83203125" style="2" customWidth="1"/>
+    <col min="79" max="79" width="10.83203125" style="1" customWidth="1"/>
+    <col min="80" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +2733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2752,7 +2749,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>27</v>
@@ -2766,21 +2763,21 @@
       <c r="K2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="55">
         <v>2</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="56">
         <v>4</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="57">
+      <c r="R2" s="56">
         <v>3</v>
       </c>
       <c r="S2" s="5"/>
@@ -2844,7 +2841,7 @@
       <c r="BY2" s="10"/>
       <c r="BZ2" s="11"/>
     </row>
-    <row r="3" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2860,7 +2857,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>32</v>
@@ -2874,21 +2871,21 @@
       <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="55">
         <v>2</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="56">
         <v>4</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="57">
+      <c r="R3" s="56">
         <v>3</v>
       </c>
       <c r="S3" s="5"/>
@@ -2952,7 +2949,7 @@
       <c r="BY3" s="14"/>
       <c r="BZ3" s="15"/>
     </row>
-    <row r="4" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2968,7 +2965,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>33</v>
@@ -2982,19 +2979,19 @@
       <c r="K4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="55">
         <v>1</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="56">
         <v>0</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="59"/>
+      <c r="R4" s="58"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -3056,7 +3053,7 @@
       <c r="BY4" s="14"/>
       <c r="BZ4" s="15"/>
     </row>
-    <row r="5" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -3072,7 +3069,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>37</v>
@@ -3086,19 +3083,19 @@
       <c r="K5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="55">
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="56">
         <v>1</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="59"/>
+      <c r="R5" s="58"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -3160,7 +3157,7 @@
       <c r="BY5" s="14"/>
       <c r="BZ5" s="15"/>
     </row>
-    <row r="6" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -3176,7 +3173,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>38</v>
@@ -3190,19 +3187,19 @@
       <c r="K6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="55">
         <v>1</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="56">
         <v>0</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="59"/>
+      <c r="R6" s="58"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -3264,7 +3261,7 @@
       <c r="BY6" s="14"/>
       <c r="BZ6" s="15"/>
     </row>
-    <row r="7" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3277,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>39</v>
@@ -3294,21 +3291,21 @@
       <c r="K7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="55">
         <v>2</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="56">
         <v>1</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="57">
+      <c r="R7" s="56">
         <v>1</v>
       </c>
       <c r="S7" s="5"/>
@@ -3376,7 +3373,7 @@
       <c r="BY7" s="14"/>
       <c r="BZ7" s="15"/>
     </row>
-    <row r="8" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -3392,7 +3389,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>44</v>
@@ -3406,14 +3403,14 @@
       <c r="K8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="55">
         <v>1</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="56">
         <v>3</v>
       </c>
       <c r="P8" s="5" t="s">
@@ -3422,7 +3419,7 @@
       <c r="Q8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="57">
+      <c r="R8" s="56">
         <v>2</v>
       </c>
       <c r="S8" s="5" t="s">
@@ -3488,7 +3485,7 @@
       <c r="BY8" s="14"/>
       <c r="BZ8" s="15"/>
     </row>
-    <row r="9" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3504,7 +3501,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
@@ -3518,21 +3515,21 @@
       <c r="K9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="55">
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="56">
         <v>1</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="57">
+      <c r="R9" s="56">
         <v>1</v>
       </c>
       <c r="S9" s="5"/>
@@ -3600,7 +3597,7 @@
       <c r="BY9" s="14"/>
       <c r="BZ9" s="15"/>
     </row>
-    <row r="10" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -3616,7 +3613,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>55</v>
@@ -3630,19 +3627,19 @@
       <c r="K10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="55">
         <v>1</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="56">
         <v>0</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="59"/>
+      <c r="R10" s="58"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -3704,7 +3701,7 @@
       <c r="BY10" s="14"/>
       <c r="BZ10" s="15"/>
     </row>
-    <row r="11" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -3720,7 +3717,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>56</v>
@@ -3734,19 +3731,19 @@
       <c r="K11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="55">
         <v>1</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="56">
         <v>0</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="59"/>
+      <c r="R11" s="58"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -3808,7 +3805,7 @@
       <c r="BY11" s="14"/>
       <c r="BZ11" s="15"/>
     </row>
-    <row r="12" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -3824,7 +3821,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>57</v>
@@ -3838,19 +3835,19 @@
       <c r="K12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="55">
         <v>1</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="56">
         <v>0</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="59"/>
+      <c r="R12" s="58"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -3912,7 +3909,7 @@
       <c r="BY12" s="14"/>
       <c r="BZ12" s="15"/>
     </row>
-    <row r="13" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -3928,7 +3925,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>58</v>
@@ -3942,19 +3939,19 @@
       <c r="K13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="55">
         <v>1</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O13" s="56">
         <v>0</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="59"/>
+      <c r="R13" s="58"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -4016,7 +4013,7 @@
       <c r="BY13" s="14"/>
       <c r="BZ13" s="15"/>
     </row>
-    <row r="14" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -4032,7 +4029,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>59</v>
@@ -4046,19 +4043,19 @@
       <c r="K14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="55">
         <v>1</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="56">
         <v>0</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="59"/>
+      <c r="R14" s="58"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -4120,7 +4117,7 @@
       <c r="BY14" s="14"/>
       <c r="BZ14" s="15"/>
     </row>
-    <row r="15" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -4136,7 +4133,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>64</v>
@@ -4150,21 +4147,21 @@
       <c r="K15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="55">
         <v>2</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="56">
         <v>4</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="57">
+      <c r="R15" s="56">
         <v>3</v>
       </c>
       <c r="S15" s="5"/>
@@ -4228,7 +4225,7 @@
       <c r="BY15" s="14"/>
       <c r="BZ15" s="15"/>
     </row>
-    <row r="16" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -4244,7 +4241,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>66</v>
@@ -4258,19 +4255,19 @@
       <c r="K16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="55">
         <v>0</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="56">
         <v>1</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="59"/>
+      <c r="R16" s="58"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -4332,7 +4329,7 @@
       <c r="BY16" s="14"/>
       <c r="BZ16" s="15"/>
     </row>
-    <row r="17" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4348,7 +4345,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>67</v>
@@ -4362,19 +4359,19 @@
       <c r="K17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="55">
         <v>0</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="56">
         <v>1</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="59"/>
+      <c r="R17" s="58"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -4436,7 +4433,7 @@
       <c r="BY17" s="14"/>
       <c r="BZ17" s="15"/>
     </row>
-    <row r="18" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
@@ -4452,33 +4449,33 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="2">
-        <v>72</v>
-      </c>
-      <c r="H18" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="87">
+      <c r="I18" s="62">
         <v>1</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="61" t="s">
         <v>45</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="55">
         <v>1</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="57">
+      <c r="O18" s="56">
         <v>3</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="59"/>
+      <c r="R18" s="58"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -4540,7 +4537,7 @@
       <c r="BY18" s="14"/>
       <c r="BZ18" s="15"/>
     </row>
-    <row r="19" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -4556,33 +4553,33 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="62">
         <v>1</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="61" t="s">
         <v>45</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L19" s="55">
         <v>1</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="56">
         <v>3</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="59"/>
+      <c r="R19" s="58"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -4644,7 +4641,7 @@
       <c r="BY19" s="14"/>
       <c r="BZ19" s="15"/>
     </row>
-    <row r="20" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -4660,7 +4657,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>73</v>
@@ -4674,7 +4671,7 @@
       <c r="K20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="56">
+      <c r="L20" s="55">
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -4683,12 +4680,12 @@
       <c r="N20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="56">
         <v>0</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="59"/>
+      <c r="R20" s="58"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -4750,7 +4747,7 @@
       <c r="BY20" s="14"/>
       <c r="BZ20" s="15"/>
     </row>
-    <row r="21" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -4766,7 +4763,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>75</v>
@@ -4780,21 +4777,21 @@
       <c r="K21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="55">
         <v>1</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="56">
         <v>1</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="57">
+      <c r="R21" s="56">
         <v>1</v>
       </c>
       <c r="S21" s="5"/>
@@ -4862,7 +4859,7 @@
       <c r="BY21" s="14"/>
       <c r="BZ21" s="15"/>
     </row>
-    <row r="22" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
@@ -4878,7 +4875,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>80</v>
@@ -4892,21 +4889,21 @@
       <c r="K22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="55">
         <v>1</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="56">
         <v>1</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R22" s="57">
+      <c r="R22" s="56">
         <v>1</v>
       </c>
       <c r="S22" s="5"/>
@@ -4978,7 +4975,7 @@
       <c r="BY22" s="14"/>
       <c r="BZ22" s="15"/>
     </row>
-    <row r="23" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -4994,7 +4991,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>85</v>
@@ -5008,19 +5005,19 @@
       <c r="K23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="55">
         <v>1</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="56">
         <v>0</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="59"/>
+      <c r="R23" s="58"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -5082,7 +5079,7 @@
       <c r="BY23" s="14"/>
       <c r="BZ23" s="15"/>
     </row>
-    <row r="24" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -5098,7 +5095,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>86</v>
@@ -5112,7 +5109,7 @@
       <c r="K24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="55">
         <v>1</v>
       </c>
       <c r="M24" s="5" t="s">
@@ -5121,12 +5118,12 @@
       <c r="N24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="56">
         <v>0</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="59"/>
+      <c r="R24" s="58"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -5188,7 +5185,7 @@
       <c r="BY24" s="14"/>
       <c r="BZ24" s="15"/>
     </row>
-    <row r="25" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
@@ -5204,21 +5201,21 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25" s="62">
         <v>1</v>
       </c>
-      <c r="J25" s="86" t="s">
+      <c r="J25" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="55">
         <v>1</v>
       </c>
       <c r="M25" s="7" t="s">
@@ -5227,12 +5224,12 @@
       <c r="N25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="57">
+      <c r="O25" s="56">
         <v>0</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="59"/>
+      <c r="R25" s="58"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -5294,7 +5291,7 @@
       <c r="BY25" s="14"/>
       <c r="BZ25" s="15"/>
     </row>
-    <row r="26" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -5310,33 +5307,33 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="2">
-        <v>72</v>
-      </c>
-      <c r="H26" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="87">
+      <c r="I26" s="62">
         <v>1</v>
       </c>
-      <c r="J26" s="86" t="s">
+      <c r="J26" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="56">
+      <c r="L26" s="55">
         <v>1</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="57">
+      <c r="O26" s="56">
         <v>0</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="59"/>
+      <c r="R26" s="58"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -5398,7 +5395,7 @@
       <c r="BY26" s="14"/>
       <c r="BZ26" s="15"/>
     </row>
-    <row r="27" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>89</v>
       </c>
@@ -5414,7 +5411,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>93</v>
@@ -5428,19 +5425,19 @@
       <c r="K27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="55">
         <v>1</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="57">
+      <c r="O27" s="56">
         <v>0</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="59"/>
+      <c r="R27" s="58"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -5502,7 +5499,7 @@
       <c r="BY27" s="14"/>
       <c r="BZ27" s="15"/>
     </row>
-    <row r="28" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>89</v>
       </c>
@@ -5518,7 +5515,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>94</v>
@@ -5532,19 +5529,19 @@
       <c r="K28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="55">
         <v>1</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="56">
         <v>0</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="59"/>
+      <c r="R28" s="58"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -5606,7 +5603,7 @@
       <c r="BY28" s="14"/>
       <c r="BZ28" s="15"/>
     </row>
-    <row r="29" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>89</v>
       </c>
@@ -5622,7 +5619,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>95</v>
@@ -5636,19 +5633,19 @@
       <c r="K29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L29" s="55">
         <v>1</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="57">
+      <c r="O29" s="56">
         <v>0</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="59"/>
+      <c r="R29" s="58"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -5710,7 +5707,7 @@
       <c r="BY29" s="14"/>
       <c r="BZ29" s="15"/>
     </row>
-    <row r="30" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>89</v>
       </c>
@@ -5726,7 +5723,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>96</v>
@@ -5740,19 +5737,19 @@
       <c r="K30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L30" s="55">
         <v>1</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="56">
         <v>0</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="59"/>
+      <c r="R30" s="58"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -5814,7 +5811,7 @@
       <c r="BY30" s="14"/>
       <c r="BZ30" s="15"/>
     </row>
-    <row r="31" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>89</v>
       </c>
@@ -5830,7 +5827,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>97</v>
@@ -5844,19 +5841,19 @@
       <c r="K31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="56">
+      <c r="L31" s="55">
         <v>1</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="57">
+      <c r="O31" s="56">
         <v>0</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="59"/>
+      <c r="R31" s="58"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -5918,7 +5915,7 @@
       <c r="BY31" s="14"/>
       <c r="BZ31" s="15"/>
     </row>
-    <row r="32" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>89</v>
       </c>
@@ -5934,33 +5931,33 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="2">
-        <v>240</v>
-      </c>
-      <c r="H32" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="87">
+      <c r="I32" s="62">
         <v>1</v>
       </c>
-      <c r="J32" s="86" t="s">
+      <c r="J32" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="56">
+      <c r="L32" s="55">
         <v>1</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="56">
         <v>0</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="59"/>
+      <c r="R32" s="58"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -6022,7 +6019,7 @@
       <c r="BY32" s="14"/>
       <c r="BZ32" s="15"/>
     </row>
-    <row r="33" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>89</v>
       </c>
@@ -6038,33 +6035,33 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2">
-        <v>240</v>
-      </c>
-      <c r="H33" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="87">
+      <c r="I33" s="62">
         <v>1</v>
       </c>
-      <c r="J33" s="86" t="s">
+      <c r="J33" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L33" s="55">
         <v>1</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="56">
         <v>0</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="59"/>
+      <c r="R33" s="58"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -6126,7 +6123,7 @@
       <c r="BY33" s="14"/>
       <c r="BZ33" s="15"/>
     </row>
-    <row r="34" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>89</v>
       </c>
@@ -6142,7 +6139,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>100</v>
@@ -6156,21 +6153,21 @@
       <c r="K34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="55">
         <v>4</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="O34" s="57">
+      <c r="O34" s="56">
         <v>2</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="R34" s="57">
+      <c r="R34" s="56">
         <v>3</v>
       </c>
       <c r="S34" s="5"/>
@@ -6242,7 +6239,7 @@
       <c r="BY34" s="14"/>
       <c r="BZ34" s="15"/>
     </row>
-    <row r="35" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>89</v>
       </c>
@@ -6258,7 +6255,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>106</v>
@@ -6272,21 +6269,21 @@
       <c r="K35" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="56">
+      <c r="L35" s="55">
         <v>1</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="O35" s="57">
+      <c r="O35" s="56">
         <v>3</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="R35" s="57">
+      <c r="R35" s="56">
         <v>0</v>
       </c>
       <c r="S35" s="5"/>
@@ -6350,7 +6347,7 @@
       <c r="BY35" s="14"/>
       <c r="BZ35" s="15"/>
     </row>
-    <row r="36" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>89</v>
       </c>
@@ -6366,7 +6363,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>110</v>
@@ -6380,19 +6377,19 @@
       <c r="K36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="55">
         <v>3</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O36" s="57">
+      <c r="O36" s="56">
         <v>1</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="59"/>
+      <c r="R36" s="58"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -6454,7 +6451,7 @@
       <c r="BY36" s="14"/>
       <c r="BZ36" s="15"/>
     </row>
-    <row r="37" spans="1:78" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:78" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>89</v>
       </c>
@@ -6470,7 +6467,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>113</v>
@@ -6484,21 +6481,21 @@
       <c r="K37" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L37" s="56">
+      <c r="L37" s="55">
         <v>6</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O37" s="57">
+      <c r="O37" s="56">
         <v>5</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="R37" s="57">
+      <c r="R37" s="56">
         <v>4</v>
       </c>
       <c r="S37" s="5"/>
@@ -6574,7 +6571,7 @@
       <c r="BY37" s="14"/>
       <c r="BZ37" s="15"/>
     </row>
-    <row r="38" spans="1:78" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:78" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>89</v>
       </c>
@@ -6590,7 +6587,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>120</v>
@@ -6604,19 +6601,19 @@
       <c r="K38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L38" s="56">
+      <c r="L38" s="55">
         <v>2</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="56">
         <v>4</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="59"/>
+      <c r="R38" s="58"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -6678,7 +6675,7 @@
       <c r="BY38" s="14"/>
       <c r="BZ38" s="15"/>
     </row>
-    <row r="39" spans="1:78" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:78" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>89</v>
       </c>
@@ -6694,33 +6691,33 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2">
-        <v>240</v>
-      </c>
-      <c r="H39" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="I39" s="87">
+      <c r="I39" s="62">
         <v>1</v>
       </c>
-      <c r="J39" s="86" t="s">
+      <c r="J39" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="56">
+      <c r="L39" s="55">
         <v>0</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="57">
+      <c r="O39" s="56">
         <v>1</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="59"/>
+      <c r="R39" s="58"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -6782,7 +6779,7 @@
       <c r="BY39" s="14"/>
       <c r="BZ39" s="15"/>
     </row>
-    <row r="40" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>89</v>
       </c>
@@ -6798,33 +6795,33 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2">
-        <v>48</v>
-      </c>
-      <c r="H40" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="I40" s="87">
+      <c r="I40" s="62">
         <v>1</v>
       </c>
-      <c r="J40" s="86" t="s">
+      <c r="J40" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="56">
+      <c r="L40" s="55">
         <v>0</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="57">
+      <c r="O40" s="56">
         <v>1</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="59"/>
+      <c r="R40" s="58"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -6886,7 +6883,7 @@
       <c r="BY40" s="14"/>
       <c r="BZ40" s="15"/>
     </row>
-    <row r="41" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>89</v>
       </c>
@@ -6902,7 +6899,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>127</v>
@@ -6916,21 +6913,21 @@
       <c r="K41" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L41" s="55">
         <v>2</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O41" s="57">
+      <c r="O41" s="56">
         <v>2</v>
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="R41" s="57">
+      <c r="R41" s="56">
         <v>2</v>
       </c>
       <c r="S41" s="5"/>
@@ -7006,7 +7003,7 @@
       <c r="BY41" s="14"/>
       <c r="BZ41" s="15"/>
     </row>
-    <row r="42" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>89</v>
       </c>
@@ -7022,7 +7019,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>134</v>
@@ -7036,19 +7033,19 @@
       <c r="K42" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L42" s="55">
         <v>4</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="O42" s="57">
+      <c r="O42" s="56">
         <v>1</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="59"/>
+      <c r="R42" s="58"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -7110,7 +7107,7 @@
       <c r="BY42" s="14"/>
       <c r="BZ42" s="15"/>
     </row>
-    <row r="43" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>89</v>
       </c>
@@ -7126,7 +7123,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>137</v>
@@ -7140,21 +7137,21 @@
       <c r="K43" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="L43" s="56">
+      <c r="L43" s="55">
         <v>4</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="O43" s="57">
+      <c r="O43" s="56">
         <v>3</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="R43" s="57">
+      <c r="R43" s="56">
         <v>1</v>
       </c>
       <c r="S43" s="5"/>
@@ -7222,7 +7219,7 @@
       <c r="BY43" s="14"/>
       <c r="BZ43" s="15"/>
     </row>
-    <row r="44" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>89</v>
       </c>
@@ -7238,7 +7235,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>142</v>
@@ -7252,21 +7249,21 @@
       <c r="K44" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="55">
         <v>5</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O44" s="57">
+      <c r="O44" s="56">
         <v>3</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="R44" s="57">
+      <c r="R44" s="56">
         <v>3</v>
       </c>
       <c r="S44" s="5"/>
@@ -7334,7 +7331,7 @@
       <c r="BY44" s="14"/>
       <c r="BZ44" s="15"/>
     </row>
-    <row r="45" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>89</v>
       </c>
@@ -7350,7 +7347,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H45" s="20" t="s">
         <v>147</v>
@@ -7364,19 +7361,19 @@
       <c r="K45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="56">
+      <c r="L45" s="55">
         <v>1</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="57">
+      <c r="O45" s="56">
         <v>0</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="59"/>
+      <c r="R45" s="58"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -7438,7 +7435,7 @@
       <c r="BY45" s="14"/>
       <c r="BZ45" s="15"/>
     </row>
-    <row r="46" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>89</v>
       </c>
@@ -7454,33 +7451,33 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="2">
-        <v>48</v>
-      </c>
-      <c r="H46" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="I46" s="87">
+      <c r="I46" s="62">
         <v>1</v>
       </c>
-      <c r="J46" s="86" t="s">
+      <c r="J46" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="56">
+      <c r="L46" s="55">
         <v>0</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="57">
+      <c r="O46" s="56">
         <v>1</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
-      <c r="R46" s="59"/>
+      <c r="R46" s="58"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -7542,7 +7539,7 @@
       <c r="BY46" s="14"/>
       <c r="BZ46" s="15"/>
     </row>
-    <row r="47" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>89</v>
       </c>
@@ -7558,33 +7555,33 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="2">
-        <v>48</v>
-      </c>
-      <c r="H47" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="I47" s="87">
+      <c r="I47" s="62">
         <v>1</v>
       </c>
-      <c r="J47" s="86" t="s">
+      <c r="J47" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L47" s="56">
+      <c r="L47" s="55">
         <v>1</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O47" s="57">
+      <c r="O47" s="56">
         <v>0</v>
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="59"/>
+      <c r="R47" s="58"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -7646,7 +7643,7 @@
       <c r="BY47" s="14"/>
       <c r="BZ47" s="15"/>
     </row>
-    <row r="48" spans="1:78" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:78" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>89</v>
       </c>
@@ -7662,33 +7659,33 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="2">
-        <v>48</v>
-      </c>
-      <c r="H48" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="I48" s="87">
+      <c r="I48" s="62">
         <v>1</v>
       </c>
-      <c r="J48" s="86" t="s">
+      <c r="J48" s="61" t="s">
         <v>34</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L48" s="56">
+      <c r="L48" s="55">
         <v>1</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O48" s="57">
+      <c r="O48" s="56">
         <v>0</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-      <c r="R48" s="59"/>
+      <c r="R48" s="58"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -7750,7 +7747,7 @@
       <c r="BY48" s="22"/>
       <c r="BZ48" s="23"/>
     </row>
-    <row r="49" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>89</v>
       </c>
@@ -7765,8 +7762,8 @@
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="55">
-        <v>48</v>
+      <c r="G49" s="2">
+        <v>1</v>
       </c>
       <c r="H49" s="19" t="s">
         <v>151</v>
@@ -7780,19 +7777,19 @@
       <c r="K49" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L49" s="56">
+      <c r="L49" s="55">
         <v>1</v>
       </c>
       <c r="M49" s="25"/>
       <c r="N49" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="58">
+      <c r="O49" s="57">
         <v>0</v>
       </c>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
-      <c r="R49" s="60"/>
+      <c r="R49" s="59"/>
       <c r="S49" s="25"/>
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
@@ -7800,7 +7797,7 @@
       <c r="W49" s="25"/>
       <c r="X49" s="25"/>
     </row>
-    <row r="50" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>89</v>
       </c>
@@ -7815,8 +7812,8 @@
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="55">
-        <v>120</v>
+      <c r="G50" s="2">
+        <v>1</v>
       </c>
       <c r="H50" s="19" t="s">
         <v>154</v>
@@ -7830,19 +7827,19 @@
       <c r="K50" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L50" s="56">
+      <c r="L50" s="55">
         <v>1</v>
       </c>
       <c r="M50" s="25"/>
       <c r="N50" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O50" s="58">
+      <c r="O50" s="57">
         <v>0</v>
       </c>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
-      <c r="R50" s="60"/>
+      <c r="R50" s="59"/>
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
@@ -7850,7 +7847,7 @@
       <c r="W50" s="25"/>
       <c r="X50" s="25"/>
     </row>
-    <row r="51" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
@@ -7865,8 +7862,8 @@
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="55">
-        <v>120</v>
+      <c r="G51" s="2">
+        <v>1</v>
       </c>
       <c r="H51" s="19" t="s">
         <v>155</v>
@@ -7880,19 +7877,19 @@
       <c r="K51" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L51" s="56">
+      <c r="L51" s="55">
         <v>1</v>
       </c>
       <c r="M51" s="25"/>
       <c r="N51" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="58">
+      <c r="O51" s="57">
         <v>0</v>
       </c>
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
-      <c r="R51" s="60"/>
+      <c r="R51" s="59"/>
       <c r="S51" s="25"/>
       <c r="T51" s="25"/>
       <c r="U51" s="25"/>
@@ -7900,7 +7897,7 @@
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
     </row>
-    <row r="52" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
@@ -7915,8 +7912,8 @@
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="55">
-        <v>120</v>
+      <c r="G52" s="2">
+        <v>1</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>156</v>
@@ -7930,19 +7927,19 @@
       <c r="K52" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L52" s="56">
+      <c r="L52" s="55">
         <v>1</v>
       </c>
       <c r="M52" s="25"/>
       <c r="N52" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="58">
+      <c r="O52" s="57">
         <v>0</v>
       </c>
       <c r="P52" s="25"/>
       <c r="Q52" s="25"/>
-      <c r="R52" s="60"/>
+      <c r="R52" s="59"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
@@ -7950,7 +7947,7 @@
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
     </row>
-    <row r="53" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
@@ -7965,33 +7962,33 @@
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="55">
-        <v>120</v>
-      </c>
-      <c r="H53" s="85" t="s">
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="I53" s="87">
+      <c r="I53" s="62">
         <v>1</v>
       </c>
-      <c r="J53" s="90" t="s">
+      <c r="J53" s="65" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L53" s="56">
+      <c r="L53" s="55">
         <v>1</v>
       </c>
       <c r="M53" s="25"/>
       <c r="N53" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O53" s="58">
+      <c r="O53" s="57">
         <v>0</v>
       </c>
       <c r="P53" s="25"/>
-      <c r="R53" s="60"/>
+      <c r="R53" s="59"/>
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
@@ -7999,7 +7996,7 @@
       <c r="W53" s="25"/>
       <c r="X53" s="25"/>
     </row>
-    <row r="54" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>89</v>
       </c>
@@ -8014,36 +8011,36 @@
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="55">
-        <v>120</v>
-      </c>
-      <c r="H54" s="85" t="s">
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="I54" s="87">
+      <c r="I54" s="62">
         <v>1</v>
       </c>
-      <c r="J54" s="90" t="s">
+      <c r="J54" s="65" t="s">
         <v>45</v>
       </c>
       <c r="K54" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="L54" s="56">
+      <c r="L54" s="55">
         <v>4</v>
       </c>
       <c r="M54" s="25"/>
       <c r="N54" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="O54" s="58">
+      <c r="O54" s="57">
         <v>2</v>
       </c>
       <c r="P54" s="25"/>
       <c r="Q54" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R54" s="58">
+      <c r="R54" s="57">
         <v>3</v>
       </c>
       <c r="S54" s="25"/>
@@ -8053,7 +8050,7 @@
       <c r="W54" s="25"/>
       <c r="X54" s="25"/>
     </row>
-    <row r="55" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>89</v>
       </c>
@@ -8068,29 +8065,29 @@
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="55">
-        <v>120</v>
-      </c>
-      <c r="H55" s="88" t="s">
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="I55" s="87">
+      <c r="I55" s="62">
         <v>1</v>
       </c>
-      <c r="J55" s="90" t="s">
+      <c r="J55" s="65" t="s">
         <v>34</v>
       </c>
       <c r="K55" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L55" s="56">
+      <c r="L55" s="55">
         <v>1</v>
       </c>
       <c r="M55" s="25"/>
       <c r="N55" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="58">
+      <c r="O55" s="57">
         <v>0</v>
       </c>
       <c r="P55" s="25"/>
@@ -8103,7 +8100,7 @@
       <c r="W55" s="25"/>
       <c r="X55" s="25"/>
     </row>
-    <row r="56" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>89</v>
       </c>
@@ -8118,8 +8115,8 @@
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="55">
-        <v>120</v>
+      <c r="G56" s="2">
+        <v>1</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>162</v>
@@ -8133,14 +8130,14 @@
       <c r="K56" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L56" s="56">
+      <c r="L56" s="55">
         <v>1</v>
       </c>
       <c r="M56" s="25"/>
       <c r="N56" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O56" s="58">
+      <c r="O56" s="57">
         <v>0</v>
       </c>
       <c r="P56" s="25"/>
@@ -8153,7 +8150,7 @@
       <c r="W56" s="25"/>
       <c r="X56" s="25"/>
     </row>
-    <row r="57" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>89</v>
       </c>
@@ -8168,8 +8165,8 @@
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="55">
-        <v>240</v>
+      <c r="G57" s="2">
+        <v>1</v>
       </c>
       <c r="H57" s="19" t="s">
         <v>165</v>
@@ -8183,14 +8180,14 @@
       <c r="K57" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L57" s="56">
+      <c r="L57" s="55">
         <v>1</v>
       </c>
       <c r="M57" s="25"/>
       <c r="N57" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O57" s="58">
+      <c r="O57" s="57">
         <v>0</v>
       </c>
       <c r="P57" s="25"/>
@@ -8203,7 +8200,7 @@
       <c r="W57" s="25"/>
       <c r="X57" s="25"/>
     </row>
-    <row r="58" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>89</v>
       </c>
@@ -8218,8 +8215,8 @@
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="55">
-        <v>240</v>
+      <c r="G58" s="2">
+        <v>1</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>166</v>
@@ -8233,14 +8230,14 @@
       <c r="K58" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="56">
+      <c r="L58" s="55">
         <v>1</v>
       </c>
       <c r="M58" s="25"/>
       <c r="N58" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O58" s="58">
+      <c r="O58" s="57">
         <v>0</v>
       </c>
       <c r="P58" s="25"/>
@@ -8253,7 +8250,7 @@
       <c r="W58" s="25"/>
       <c r="X58" s="25"/>
     </row>
-    <row r="59" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>89</v>
       </c>
@@ -8268,8 +8265,8 @@
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="55">
-        <v>240</v>
+      <c r="G59" s="2">
+        <v>1</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>167</v>
@@ -8283,14 +8280,14 @@
       <c r="K59" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L59" s="56">
+      <c r="L59" s="55">
         <v>1</v>
       </c>
       <c r="M59" s="25"/>
       <c r="N59" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O59" s="58">
+      <c r="O59" s="57">
         <v>0</v>
       </c>
       <c r="P59" s="25"/>
@@ -8303,7 +8300,7 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
     </row>
-    <row r="60" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>89</v>
       </c>
@@ -8318,8 +8315,8 @@
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="55">
-        <v>240</v>
+      <c r="G60" s="2">
+        <v>1</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>168</v>
@@ -8333,14 +8330,14 @@
       <c r="K60" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L60" s="56">
+      <c r="L60" s="55">
         <v>1</v>
       </c>
       <c r="M60" s="25"/>
       <c r="N60" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O60" s="58">
+      <c r="O60" s="57">
         <v>0</v>
       </c>
       <c r="P60" s="25"/>
@@ -8353,7 +8350,7 @@
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
     </row>
-    <row r="61" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>89</v>
       </c>
@@ -8368,8 +8365,8 @@
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="55">
-        <v>240</v>
+      <c r="G61" s="2">
+        <v>1</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>169</v>
@@ -8383,14 +8380,14 @@
       <c r="K61" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L61" s="56">
+      <c r="L61" s="55">
         <v>1</v>
       </c>
       <c r="M61" s="25"/>
       <c r="N61" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O61" s="58">
+      <c r="O61" s="57">
         <v>0</v>
       </c>
       <c r="P61" s="25"/>
@@ -8403,7 +8400,7 @@
       <c r="W61" s="25"/>
       <c r="X61" s="25"/>
     </row>
-    <row r="62" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -8429,7 +8426,7 @@
       <c r="W62" s="25"/>
       <c r="X62" s="25"/>
     </row>
-    <row r="63" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -8455,7 +8452,7 @@
       <c r="W63" s="25"/>
       <c r="X63" s="25"/>
     </row>
-    <row r="64" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -8481,7 +8478,7 @@
       <c r="W64" s="25"/>
       <c r="X64" s="25"/>
     </row>
-    <row r="65" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -8507,7 +8504,7 @@
       <c r="W65" s="25"/>
       <c r="X65" s="25"/>
     </row>
-    <row r="66" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -8533,7 +8530,7 @@
       <c r="W66" s="25"/>
       <c r="X66" s="25"/>
     </row>
-    <row r="67" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -8559,7 +8556,7 @@
       <c r="W67" s="25"/>
       <c r="X67" s="25"/>
     </row>
-    <row r="68" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -8585,7 +8582,7 @@
       <c r="W68" s="25"/>
       <c r="X68" s="25"/>
     </row>
-    <row r="69" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -8611,7 +8608,7 @@
       <c r="W69" s="25"/>
       <c r="X69" s="25"/>
     </row>
-    <row r="70" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -8637,7 +8634,7 @@
       <c r="W70" s="25"/>
       <c r="X70" s="25"/>
     </row>
-    <row r="71" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -8663,7 +8660,7 @@
       <c r="W71" s="25"/>
       <c r="X71" s="25"/>
     </row>
-    <row r="72" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -8689,7 +8686,7 @@
       <c r="W72" s="25"/>
       <c r="X72" s="25"/>
     </row>
-    <row r="73" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -8715,7 +8712,7 @@
       <c r="W73" s="25"/>
       <c r="X73" s="25"/>
     </row>
-    <row r="74" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -8741,7 +8738,7 @@
       <c r="W74" s="25"/>
       <c r="X74" s="25"/>
     </row>
-    <row r="75" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -8767,7 +8764,7 @@
       <c r="W75" s="25"/>
       <c r="X75" s="25"/>
     </row>
-    <row r="76" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -8793,7 +8790,7 @@
       <c r="W76" s="25"/>
       <c r="X76" s="25"/>
     </row>
-    <row r="77" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -8819,7 +8816,7 @@
       <c r="W77" s="25"/>
       <c r="X77" s="25"/>
     </row>
-    <row r="78" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -8845,7 +8842,7 @@
       <c r="W78" s="25"/>
       <c r="X78" s="25"/>
     </row>
-    <row r="79" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -8871,7 +8868,7 @@
       <c r="W79" s="25"/>
       <c r="X79" s="25"/>
     </row>
-    <row r="80" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -8897,7 +8894,7 @@
       <c r="W80" s="25"/>
       <c r="X80" s="25"/>
     </row>
-    <row r="81" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -8923,7 +8920,7 @@
       <c r="W81" s="25"/>
       <c r="X81" s="25"/>
     </row>
-    <row r="82" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -8949,7 +8946,7 @@
       <c r="W82" s="25"/>
       <c r="X82" s="25"/>
     </row>
-    <row r="83" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -8975,7 +8972,7 @@
       <c r="W83" s="25"/>
       <c r="X83" s="25"/>
     </row>
-    <row r="84" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -9001,7 +8998,7 @@
       <c r="W84" s="25"/>
       <c r="X84" s="25"/>
     </row>
-    <row r="85" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -9027,7 +9024,7 @@
       <c r="W85" s="25"/>
       <c r="X85" s="25"/>
     </row>
-    <row r="86" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -9053,7 +9050,7 @@
       <c r="W86" s="25"/>
       <c r="X86" s="25"/>
     </row>
-    <row r="87" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -9079,7 +9076,7 @@
       <c r="W87" s="25"/>
       <c r="X87" s="25"/>
     </row>
-    <row r="88" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -9105,7 +9102,7 @@
       <c r="W88" s="25"/>
       <c r="X88" s="25"/>
     </row>
-    <row r="89" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -9131,7 +9128,7 @@
       <c r="W89" s="25"/>
       <c r="X89" s="25"/>
     </row>
-    <row r="90" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -9157,7 +9154,7 @@
       <c r="W90" s="25"/>
       <c r="X90" s="25"/>
     </row>
-    <row r="91" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -9183,7 +9180,7 @@
       <c r="W91" s="25"/>
       <c r="X91" s="25"/>
     </row>
-    <row r="92" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -9209,7 +9206,7 @@
       <c r="W92" s="25"/>
       <c r="X92" s="25"/>
     </row>
-    <row r="93" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -9235,7 +9232,7 @@
       <c r="W93" s="25"/>
       <c r="X93" s="25"/>
     </row>
-    <row r="94" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -9261,7 +9258,7 @@
       <c r="W94" s="25"/>
       <c r="X94" s="25"/>
     </row>
-    <row r="95" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -9287,7 +9284,7 @@
       <c r="W95" s="25"/>
       <c r="X95" s="25"/>
     </row>
-    <row r="96" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -9313,7 +9310,7 @@
       <c r="W96" s="25"/>
       <c r="X96" s="25"/>
     </row>
-    <row r="97" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -9339,7 +9336,7 @@
       <c r="W97" s="25"/>
       <c r="X97" s="25"/>
     </row>
-    <row r="98" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -9365,7 +9362,7 @@
       <c r="W98" s="25"/>
       <c r="X98" s="25"/>
     </row>
-    <row r="99" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -9391,7 +9388,7 @@
       <c r="W99" s="25"/>
       <c r="X99" s="25"/>
     </row>
-    <row r="100" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -9417,7 +9414,7 @@
       <c r="W100" s="25"/>
       <c r="X100" s="25"/>
     </row>
-    <row r="101" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
@@ -9443,7 +9440,7 @@
       <c r="W101" s="25"/>
       <c r="X101" s="25"/>
     </row>
-    <row r="102" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -9469,7 +9466,7 @@
       <c r="W102" s="25"/>
       <c r="X102" s="25"/>
     </row>
-    <row r="103" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
@@ -9495,7 +9492,7 @@
       <c r="W103" s="25"/>
       <c r="X103" s="25"/>
     </row>
-    <row r="104" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -9521,7 +9518,7 @@
       <c r="W104" s="25"/>
       <c r="X104" s="25"/>
     </row>
-    <row r="105" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
@@ -9547,7 +9544,7 @@
       <c r="W105" s="25"/>
       <c r="X105" s="25"/>
     </row>
-    <row r="106" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
@@ -9573,7 +9570,7 @@
       <c r="W106" s="25"/>
       <c r="X106" s="25"/>
     </row>
-    <row r="107" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
@@ -9599,7 +9596,7 @@
       <c r="W107" s="25"/>
       <c r="X107" s="25"/>
     </row>
-    <row r="108" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
@@ -9625,7 +9622,7 @@
       <c r="W108" s="25"/>
       <c r="X108" s="25"/>
     </row>
-    <row r="109" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
@@ -9651,7 +9648,7 @@
       <c r="W109" s="25"/>
       <c r="X109" s="25"/>
     </row>
-    <row r="110" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
@@ -9677,7 +9674,7 @@
       <c r="W110" s="25"/>
       <c r="X110" s="25"/>
     </row>
-    <row r="111" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
@@ -9703,7 +9700,7 @@
       <c r="W111" s="25"/>
       <c r="X111" s="25"/>
     </row>
-    <row r="112" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
@@ -9729,7 +9726,7 @@
       <c r="W112" s="25"/>
       <c r="X112" s="25"/>
     </row>
-    <row r="113" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
@@ -9755,7 +9752,7 @@
       <c r="W113" s="25"/>
       <c r="X113" s="25"/>
     </row>
-    <row r="114" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
@@ -9781,7 +9778,7 @@
       <c r="W114" s="25"/>
       <c r="X114" s="25"/>
     </row>
-    <row r="115" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
@@ -9807,7 +9804,7 @@
       <c r="W115" s="25"/>
       <c r="X115" s="25"/>
     </row>
-    <row r="116" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
@@ -9833,7 +9830,7 @@
       <c r="W116" s="25"/>
       <c r="X116" s="25"/>
     </row>
-    <row r="117" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
@@ -9859,7 +9856,7 @@
       <c r="W117" s="25"/>
       <c r="X117" s="25"/>
     </row>
-    <row r="118" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
@@ -9885,7 +9882,7 @@
       <c r="W118" s="25"/>
       <c r="X118" s="25"/>
     </row>
-    <row r="119" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
@@ -9911,7 +9908,7 @@
       <c r="W119" s="25"/>
       <c r="X119" s="25"/>
     </row>
-    <row r="120" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
@@ -9937,7 +9934,7 @@
       <c r="W120" s="25"/>
       <c r="X120" s="25"/>
     </row>
-    <row r="121" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
@@ -9963,7 +9960,7 @@
       <c r="W121" s="25"/>
       <c r="X121" s="25"/>
     </row>
-    <row r="122" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
@@ -9989,7 +9986,7 @@
       <c r="W122" s="25"/>
       <c r="X122" s="25"/>
     </row>
-    <row r="123" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
@@ -10015,7 +10012,7 @@
       <c r="W123" s="25"/>
       <c r="X123" s="25"/>
     </row>
-    <row r="124" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
@@ -10041,7 +10038,7 @@
       <c r="W124" s="25"/>
       <c r="X124" s="25"/>
     </row>
-    <row r="125" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
@@ -10067,7 +10064,7 @@
       <c r="W125" s="25"/>
       <c r="X125" s="25"/>
     </row>
-    <row r="126" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
@@ -10093,7 +10090,7 @@
       <c r="W126" s="25"/>
       <c r="X126" s="25"/>
     </row>
-    <row r="127" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
@@ -10119,7 +10116,7 @@
       <c r="W127" s="25"/>
       <c r="X127" s="25"/>
     </row>
-    <row r="128" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
@@ -10145,7 +10142,7 @@
       <c r="W128" s="25"/>
       <c r="X128" s="25"/>
     </row>
-    <row r="129" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
@@ -10171,7 +10168,7 @@
       <c r="W129" s="25"/>
       <c r="X129" s="25"/>
     </row>
-    <row r="130" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
@@ -10197,7 +10194,7 @@
       <c r="W130" s="25"/>
       <c r="X130" s="25"/>
     </row>
-    <row r="131" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
@@ -10223,7 +10220,7 @@
       <c r="W131" s="25"/>
       <c r="X131" s="25"/>
     </row>
-    <row r="132" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
@@ -10249,7 +10246,7 @@
       <c r="W132" s="25"/>
       <c r="X132" s="25"/>
     </row>
-    <row r="133" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
@@ -10275,7 +10272,7 @@
       <c r="W133" s="25"/>
       <c r="X133" s="25"/>
     </row>
-    <row r="134" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
@@ -10301,7 +10298,7 @@
       <c r="W134" s="25"/>
       <c r="X134" s="25"/>
     </row>
-    <row r="135" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
@@ -10327,7 +10324,7 @@
       <c r="W135" s="25"/>
       <c r="X135" s="25"/>
     </row>
-    <row r="136" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
@@ -10353,7 +10350,7 @@
       <c r="W136" s="25"/>
       <c r="X136" s="25"/>
     </row>
-    <row r="137" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
@@ -10379,7 +10376,7 @@
       <c r="W137" s="25"/>
       <c r="X137" s="25"/>
     </row>
-    <row r="138" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
@@ -10405,7 +10402,7 @@
       <c r="W138" s="25"/>
       <c r="X138" s="25"/>
     </row>
-    <row r="139" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
@@ -10431,7 +10428,7 @@
       <c r="W139" s="25"/>
       <c r="X139" s="25"/>
     </row>
-    <row r="140" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
@@ -10457,7 +10454,7 @@
       <c r="W140" s="25"/>
       <c r="X140" s="25"/>
     </row>
-    <row r="141" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
@@ -10483,7 +10480,7 @@
       <c r="W141" s="25"/>
       <c r="X141" s="25"/>
     </row>
-    <row r="142" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
@@ -10509,7 +10506,7 @@
       <c r="W142" s="25"/>
       <c r="X142" s="25"/>
     </row>
-    <row r="143" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
@@ -10535,7 +10532,7 @@
       <c r="W143" s="25"/>
       <c r="X143" s="25"/>
     </row>
-    <row r="144" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
@@ -10561,7 +10558,7 @@
       <c r="W144" s="25"/>
       <c r="X144" s="25"/>
     </row>
-    <row r="145" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
@@ -10587,7 +10584,7 @@
       <c r="W145" s="25"/>
       <c r="X145" s="25"/>
     </row>
-    <row r="146" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
@@ -10613,7 +10610,7 @@
       <c r="W146" s="25"/>
       <c r="X146" s="25"/>
     </row>
-    <row r="147" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
@@ -10639,7 +10636,7 @@
       <c r="W147" s="25"/>
       <c r="X147" s="25"/>
     </row>
-    <row r="148" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
@@ -10665,7 +10662,7 @@
       <c r="W148" s="25"/>
       <c r="X148" s="25"/>
     </row>
-    <row r="149" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
@@ -10691,7 +10688,7 @@
       <c r="W149" s="25"/>
       <c r="X149" s="25"/>
     </row>
-    <row r="150" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
@@ -10717,7 +10714,7 @@
       <c r="W150" s="25"/>
       <c r="X150" s="25"/>
     </row>
-    <row r="151" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
@@ -10743,7 +10740,7 @@
       <c r="W151" s="25"/>
       <c r="X151" s="25"/>
     </row>
-    <row r="152" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
@@ -10769,7 +10766,7 @@
       <c r="W152" s="25"/>
       <c r="X152" s="25"/>
     </row>
-    <row r="153" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
@@ -10795,7 +10792,7 @@
       <c r="W153" s="25"/>
       <c r="X153" s="25"/>
     </row>
-    <row r="154" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
@@ -10821,7 +10818,7 @@
       <c r="W154" s="25"/>
       <c r="X154" s="25"/>
     </row>
-    <row r="155" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
@@ -10847,7 +10844,7 @@
       <c r="W155" s="25"/>
       <c r="X155" s="25"/>
     </row>
-    <row r="156" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
@@ -10873,7 +10870,7 @@
       <c r="W156" s="25"/>
       <c r="X156" s="25"/>
     </row>
-    <row r="157" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
@@ -10899,7 +10896,7 @@
       <c r="W157" s="25"/>
       <c r="X157" s="25"/>
     </row>
-    <row r="158" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
@@ -10925,7 +10922,7 @@
       <c r="W158" s="25"/>
       <c r="X158" s="25"/>
     </row>
-    <row r="159" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
@@ -10951,7 +10948,7 @@
       <c r="W159" s="25"/>
       <c r="X159" s="25"/>
     </row>
-    <row r="160" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
@@ -10977,7 +10974,7 @@
       <c r="W160" s="25"/>
       <c r="X160" s="25"/>
     </row>
-    <row r="161" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
@@ -11003,7 +11000,7 @@
       <c r="W161" s="25"/>
       <c r="X161" s="25"/>
     </row>
-    <row r="162" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
@@ -11029,7 +11026,7 @@
       <c r="W162" s="25"/>
       <c r="X162" s="25"/>
     </row>
-    <row r="163" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
@@ -11055,7 +11052,7 @@
       <c r="W163" s="25"/>
       <c r="X163" s="25"/>
     </row>
-    <row r="164" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
@@ -11081,7 +11078,7 @@
       <c r="W164" s="25"/>
       <c r="X164" s="25"/>
     </row>
-    <row r="165" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
@@ -11107,7 +11104,7 @@
       <c r="W165" s="25"/>
       <c r="X165" s="25"/>
     </row>
-    <row r="166" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
@@ -11133,7 +11130,7 @@
       <c r="W166" s="25"/>
       <c r="X166" s="25"/>
     </row>
-    <row r="167" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
@@ -11159,7 +11156,7 @@
       <c r="W167" s="25"/>
       <c r="X167" s="25"/>
     </row>
-    <row r="168" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
@@ -11185,7 +11182,7 @@
       <c r="W168" s="25"/>
       <c r="X168" s="25"/>
     </row>
-    <row r="169" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
@@ -11211,7 +11208,7 @@
       <c r="W169" s="25"/>
       <c r="X169" s="25"/>
     </row>
-    <row r="170" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
@@ -11237,7 +11234,7 @@
       <c r="W170" s="25"/>
       <c r="X170" s="25"/>
     </row>
-    <row r="171" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
@@ -11263,7 +11260,7 @@
       <c r="W171" s="25"/>
       <c r="X171" s="25"/>
     </row>
-    <row r="172" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
@@ -11289,7 +11286,7 @@
       <c r="W172" s="25"/>
       <c r="X172" s="25"/>
     </row>
-    <row r="173" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
@@ -11315,7 +11312,7 @@
       <c r="W173" s="25"/>
       <c r="X173" s="25"/>
     </row>
-    <row r="174" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -11341,7 +11338,7 @@
       <c r="W174" s="25"/>
       <c r="X174" s="25"/>
     </row>
-    <row r="175" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
@@ -11367,7 +11364,7 @@
       <c r="W175" s="25"/>
       <c r="X175" s="25"/>
     </row>
-    <row r="176" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
@@ -11393,7 +11390,7 @@
       <c r="W176" s="25"/>
       <c r="X176" s="25"/>
     </row>
-    <row r="177" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
@@ -11419,7 +11416,7 @@
       <c r="W177" s="25"/>
       <c r="X177" s="25"/>
     </row>
-    <row r="178" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
@@ -11445,7 +11442,7 @@
       <c r="W178" s="25"/>
       <c r="X178" s="25"/>
     </row>
-    <row r="179" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
@@ -11471,7 +11468,7 @@
       <c r="W179" s="25"/>
       <c r="X179" s="25"/>
     </row>
-    <row r="180" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
@@ -11497,7 +11494,7 @@
       <c r="W180" s="25"/>
       <c r="X180" s="25"/>
     </row>
-    <row r="181" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
@@ -11523,7 +11520,7 @@
       <c r="W181" s="25"/>
       <c r="X181" s="25"/>
     </row>
-    <row r="182" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
@@ -11549,7 +11546,7 @@
       <c r="W182" s="25"/>
       <c r="X182" s="25"/>
     </row>
-    <row r="183" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
@@ -11575,7 +11572,7 @@
       <c r="W183" s="25"/>
       <c r="X183" s="25"/>
     </row>
-    <row r="184" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
@@ -11601,7 +11598,7 @@
       <c r="W184" s="25"/>
       <c r="X184" s="25"/>
     </row>
-    <row r="185" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
@@ -11627,7 +11624,7 @@
       <c r="W185" s="25"/>
       <c r="X185" s="25"/>
     </row>
-    <row r="186" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
@@ -11653,7 +11650,7 @@
       <c r="W186" s="25"/>
       <c r="X186" s="25"/>
     </row>
-    <row r="187" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
@@ -11679,7 +11676,7 @@
       <c r="W187" s="25"/>
       <c r="X187" s="25"/>
     </row>
-    <row r="188" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
@@ -11705,7 +11702,7 @@
       <c r="W188" s="25"/>
       <c r="X188" s="25"/>
     </row>
-    <row r="189" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
@@ -11731,7 +11728,7 @@
       <c r="W189" s="25"/>
       <c r="X189" s="25"/>
     </row>
-    <row r="190" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
@@ -11757,7 +11754,7 @@
       <c r="W190" s="25"/>
       <c r="X190" s="25"/>
     </row>
-    <row r="191" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
@@ -11783,7 +11780,7 @@
       <c r="W191" s="25"/>
       <c r="X191" s="25"/>
     </row>
-    <row r="192" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
@@ -11809,7 +11806,7 @@
       <c r="W192" s="25"/>
       <c r="X192" s="25"/>
     </row>
-    <row r="193" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
@@ -11835,7 +11832,7 @@
       <c r="W193" s="25"/>
       <c r="X193" s="25"/>
     </row>
-    <row r="194" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
@@ -11861,7 +11858,7 @@
       <c r="W194" s="25"/>
       <c r="X194" s="25"/>
     </row>
-    <row r="195" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
@@ -11887,7 +11884,7 @@
       <c r="W195" s="25"/>
       <c r="X195" s="25"/>
     </row>
-    <row r="196" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
@@ -11913,7 +11910,7 @@
       <c r="W196" s="25"/>
       <c r="X196" s="25"/>
     </row>
-    <row r="197" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
@@ -11939,7 +11936,7 @@
       <c r="W197" s="25"/>
       <c r="X197" s="25"/>
     </row>
-    <row r="198" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
@@ -11965,7 +11962,7 @@
       <c r="W198" s="25"/>
       <c r="X198" s="25"/>
     </row>
-    <row r="199" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
@@ -11991,7 +11988,7 @@
       <c r="W199" s="25"/>
       <c r="X199" s="25"/>
     </row>
-    <row r="200" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="25"/>
@@ -12017,7 +12014,7 @@
       <c r="W200" s="25"/>
       <c r="X200" s="25"/>
     </row>
-    <row r="201" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="25"/>
       <c r="B201" s="25"/>
       <c r="C201" s="25"/>
@@ -12043,7 +12040,7 @@
       <c r="W201" s="25"/>
       <c r="X201" s="25"/>
     </row>
-    <row r="202" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="25"/>
       <c r="B202" s="25"/>
       <c r="C202" s="25"/>
@@ -12069,7 +12066,7 @@
       <c r="W202" s="25"/>
       <c r="X202" s="25"/>
     </row>
-    <row r="203" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="25"/>
       <c r="B203" s="25"/>
       <c r="C203" s="25"/>
@@ -12095,7 +12092,7 @@
       <c r="W203" s="25"/>
       <c r="X203" s="25"/>
     </row>
-    <row r="204" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="25"/>
       <c r="B204" s="25"/>
       <c r="C204" s="25"/>
@@ -12121,7 +12118,7 @@
       <c r="W204" s="25"/>
       <c r="X204" s="25"/>
     </row>
-    <row r="205" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="25"/>
       <c r="B205" s="25"/>
       <c r="C205" s="25"/>
@@ -12147,7 +12144,7 @@
       <c r="W205" s="25"/>
       <c r="X205" s="25"/>
     </row>
-    <row r="206" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="25"/>
       <c r="B206" s="25"/>
       <c r="C206" s="25"/>
@@ -12173,7 +12170,7 @@
       <c r="W206" s="25"/>
       <c r="X206" s="25"/>
     </row>
-    <row r="207" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="25"/>
       <c r="B207" s="25"/>
       <c r="C207" s="25"/>
@@ -12199,7 +12196,7 @@
       <c r="W207" s="25"/>
       <c r="X207" s="25"/>
     </row>
-    <row r="208" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="25"/>
       <c r="B208" s="25"/>
       <c r="C208" s="25"/>
@@ -12225,7 +12222,7 @@
       <c r="W208" s="25"/>
       <c r="X208" s="25"/>
     </row>
-    <row r="209" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="25"/>
       <c r="B209" s="25"/>
       <c r="C209" s="25"/>
@@ -12251,7 +12248,7 @@
       <c r="W209" s="25"/>
       <c r="X209" s="25"/>
     </row>
-    <row r="210" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="25"/>
       <c r="B210" s="25"/>
       <c r="C210" s="25"/>
@@ -12277,7 +12274,7 @@
       <c r="W210" s="25"/>
       <c r="X210" s="25"/>
     </row>
-    <row r="211" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="25"/>
       <c r="B211" s="25"/>
       <c r="C211" s="25"/>
@@ -12303,7 +12300,7 @@
       <c r="W211" s="25"/>
       <c r="X211" s="25"/>
     </row>
-    <row r="212" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="25"/>
       <c r="B212" s="25"/>
       <c r="C212" s="25"/>
@@ -12329,7 +12326,7 @@
       <c r="W212" s="25"/>
       <c r="X212" s="25"/>
     </row>
-    <row r="213" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="25"/>
       <c r="B213" s="25"/>
       <c r="C213" s="25"/>
@@ -12355,7 +12352,7 @@
       <c r="W213" s="25"/>
       <c r="X213" s="25"/>
     </row>
-    <row r="214" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="25"/>
       <c r="B214" s="25"/>
       <c r="C214" s="25"/>
@@ -12381,7 +12378,7 @@
       <c r="W214" s="25"/>
       <c r="X214" s="25"/>
     </row>
-    <row r="215" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="25"/>
       <c r="B215" s="25"/>
       <c r="C215" s="25"/>
@@ -12407,7 +12404,7 @@
       <c r="W215" s="25"/>
       <c r="X215" s="25"/>
     </row>
-    <row r="216" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="25"/>
       <c r="B216" s="25"/>
       <c r="C216" s="25"/>
@@ -12433,7 +12430,7 @@
       <c r="W216" s="25"/>
       <c r="X216" s="25"/>
     </row>
-    <row r="217" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="25"/>
       <c r="B217" s="25"/>
       <c r="C217" s="25"/>
@@ -12459,7 +12456,7 @@
       <c r="W217" s="25"/>
       <c r="X217" s="25"/>
     </row>
-    <row r="218" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="25"/>
       <c r="B218" s="25"/>
       <c r="C218" s="25"/>
@@ -12485,7 +12482,7 @@
       <c r="W218" s="25"/>
       <c r="X218" s="25"/>
     </row>
-    <row r="219" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="25"/>
       <c r="B219" s="25"/>
       <c r="C219" s="25"/>
@@ -12511,7 +12508,7 @@
       <c r="W219" s="25"/>
       <c r="X219" s="25"/>
     </row>
-    <row r="220" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="25"/>
       <c r="B220" s="25"/>
       <c r="C220" s="25"/>
@@ -12537,7 +12534,7 @@
       <c r="W220" s="25"/>
       <c r="X220" s="25"/>
     </row>
-    <row r="221" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="25"/>
       <c r="B221" s="25"/>
       <c r="C221" s="25"/>
@@ -12563,7 +12560,7 @@
       <c r="W221" s="25"/>
       <c r="X221" s="25"/>
     </row>
-    <row r="222" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="25"/>
       <c r="B222" s="25"/>
       <c r="C222" s="25"/>
@@ -12589,7 +12586,7 @@
       <c r="W222" s="25"/>
       <c r="X222" s="25"/>
     </row>
-    <row r="223" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="25"/>
       <c r="B223" s="25"/>
       <c r="C223" s="25"/>
@@ -12615,7 +12612,7 @@
       <c r="W223" s="25"/>
       <c r="X223" s="25"/>
     </row>
-    <row r="224" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="25"/>
       <c r="B224" s="25"/>
       <c r="C224" s="25"/>
@@ -12641,7 +12638,7 @@
       <c r="W224" s="25"/>
       <c r="X224" s="25"/>
     </row>
-    <row r="225" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="25"/>
       <c r="B225" s="25"/>
       <c r="C225" s="25"/>
@@ -12667,7 +12664,7 @@
       <c r="W225" s="25"/>
       <c r="X225" s="25"/>
     </row>
-    <row r="226" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="25"/>
       <c r="B226" s="25"/>
       <c r="C226" s="25"/>
@@ -12693,7 +12690,7 @@
       <c r="W226" s="25"/>
       <c r="X226" s="25"/>
     </row>
-    <row r="227" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="25"/>
       <c r="B227" s="25"/>
       <c r="C227" s="25"/>
@@ -12719,7 +12716,7 @@
       <c r="W227" s="25"/>
       <c r="X227" s="25"/>
     </row>
-    <row r="228" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="25"/>
       <c r="B228" s="25"/>
       <c r="C228" s="25"/>
@@ -12745,7 +12742,7 @@
       <c r="W228" s="25"/>
       <c r="X228" s="25"/>
     </row>
-    <row r="229" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="25"/>
       <c r="B229" s="25"/>
       <c r="C229" s="25"/>
@@ -12771,7 +12768,7 @@
       <c r="W229" s="25"/>
       <c r="X229" s="25"/>
     </row>
-    <row r="230" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="25"/>
       <c r="B230" s="25"/>
       <c r="C230" s="25"/>
@@ -12797,7 +12794,7 @@
       <c r="W230" s="25"/>
       <c r="X230" s="25"/>
     </row>
-    <row r="231" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="25"/>
       <c r="B231" s="25"/>
       <c r="C231" s="25"/>
@@ -12823,7 +12820,7 @@
       <c r="W231" s="25"/>
       <c r="X231" s="25"/>
     </row>
-    <row r="232" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="25"/>
       <c r="B232" s="25"/>
       <c r="C232" s="25"/>
@@ -12849,7 +12846,7 @@
       <c r="W232" s="25"/>
       <c r="X232" s="25"/>
     </row>
-    <row r="233" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="25"/>
       <c r="B233" s="25"/>
       <c r="C233" s="25"/>
@@ -12875,7 +12872,7 @@
       <c r="W233" s="25"/>
       <c r="X233" s="25"/>
     </row>
-    <row r="234" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="25"/>
       <c r="B234" s="25"/>
       <c r="C234" s="25"/>
@@ -12901,7 +12898,7 @@
       <c r="W234" s="25"/>
       <c r="X234" s="25"/>
     </row>
-    <row r="235" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="25"/>
       <c r="B235" s="25"/>
       <c r="C235" s="25"/>
@@ -12927,7 +12924,7 @@
       <c r="W235" s="25"/>
       <c r="X235" s="25"/>
     </row>
-    <row r="236" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="25"/>
       <c r="B236" s="25"/>
       <c r="C236" s="25"/>
@@ -12953,7 +12950,7 @@
       <c r="W236" s="25"/>
       <c r="X236" s="25"/>
     </row>
-    <row r="237" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="25"/>
       <c r="B237" s="25"/>
       <c r="C237" s="25"/>
@@ -12979,7 +12976,7 @@
       <c r="W237" s="25"/>
       <c r="X237" s="25"/>
     </row>
-    <row r="238" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="25"/>
       <c r="B238" s="25"/>
       <c r="C238" s="25"/>
@@ -13005,7 +13002,7 @@
       <c r="W238" s="25"/>
       <c r="X238" s="25"/>
     </row>
-    <row r="239" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="25"/>
       <c r="B239" s="25"/>
       <c r="C239" s="25"/>
@@ -13031,7 +13028,7 @@
       <c r="W239" s="25"/>
       <c r="X239" s="25"/>
     </row>
-    <row r="240" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="25"/>
       <c r="B240" s="25"/>
       <c r="C240" s="25"/>
@@ -13057,7 +13054,7 @@
       <c r="W240" s="25"/>
       <c r="X240" s="25"/>
     </row>
-    <row r="241" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="25"/>
       <c r="B241" s="25"/>
       <c r="C241" s="25"/>
@@ -13083,7 +13080,7 @@
       <c r="W241" s="25"/>
       <c r="X241" s="25"/>
     </row>
-    <row r="242" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="25"/>
       <c r="B242" s="25"/>
       <c r="C242" s="25"/>
@@ -13109,7 +13106,7 @@
       <c r="W242" s="25"/>
       <c r="X242" s="25"/>
     </row>
-    <row r="243" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="25"/>
       <c r="B243" s="25"/>
       <c r="C243" s="25"/>
@@ -13135,7 +13132,7 @@
       <c r="W243" s="25"/>
       <c r="X243" s="25"/>
     </row>
-    <row r="244" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="25"/>
       <c r="B244" s="25"/>
       <c r="C244" s="25"/>
@@ -13161,7 +13158,7 @@
       <c r="W244" s="25"/>
       <c r="X244" s="25"/>
     </row>
-    <row r="245" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="25"/>
       <c r="B245" s="25"/>
       <c r="C245" s="25"/>
@@ -13187,7 +13184,7 @@
       <c r="W245" s="25"/>
       <c r="X245" s="25"/>
     </row>
-    <row r="246" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="25"/>
       <c r="B246" s="25"/>
       <c r="C246" s="25"/>
@@ -13213,7 +13210,7 @@
       <c r="W246" s="25"/>
       <c r="X246" s="25"/>
     </row>
-    <row r="247" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="25"/>
       <c r="B247" s="25"/>
       <c r="C247" s="25"/>
@@ -13239,7 +13236,7 @@
       <c r="W247" s="25"/>
       <c r="X247" s="25"/>
     </row>
-    <row r="248" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="25"/>
       <c r="B248" s="25"/>
       <c r="C248" s="25"/>
@@ -13265,7 +13262,7 @@
       <c r="W248" s="25"/>
       <c r="X248" s="25"/>
     </row>
-    <row r="249" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="25"/>
       <c r="B249" s="25"/>
       <c r="C249" s="25"/>
@@ -13291,7 +13288,7 @@
       <c r="W249" s="25"/>
       <c r="X249" s="25"/>
     </row>
-    <row r="250" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="25"/>
       <c r="B250" s="25"/>
       <c r="C250" s="25"/>
@@ -13317,7 +13314,7 @@
       <c r="W250" s="25"/>
       <c r="X250" s="25"/>
     </row>
-    <row r="251" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="25"/>
       <c r="B251" s="25"/>
       <c r="C251" s="25"/>
@@ -13343,7 +13340,7 @@
       <c r="W251" s="25"/>
       <c r="X251" s="25"/>
     </row>
-    <row r="252" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="25"/>
       <c r="B252" s="25"/>
       <c r="C252" s="25"/>
@@ -13369,7 +13366,7 @@
       <c r="W252" s="25"/>
       <c r="X252" s="25"/>
     </row>
-    <row r="253" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="25"/>
       <c r="B253" s="25"/>
       <c r="C253" s="25"/>
@@ -13395,7 +13392,7 @@
       <c r="W253" s="25"/>
       <c r="X253" s="25"/>
     </row>
-    <row r="254" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="25"/>
       <c r="B254" s="25"/>
       <c r="C254" s="25"/>
@@ -13421,7 +13418,7 @@
       <c r="W254" s="25"/>
       <c r="X254" s="25"/>
     </row>
-    <row r="255" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="25"/>
       <c r="B255" s="25"/>
       <c r="C255" s="25"/>
@@ -13447,7 +13444,7 @@
       <c r="W255" s="25"/>
       <c r="X255" s="25"/>
     </row>
-    <row r="256" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="25"/>
       <c r="B256" s="25"/>
       <c r="C256" s="25"/>
@@ -13473,7 +13470,7 @@
       <c r="W256" s="25"/>
       <c r="X256" s="25"/>
     </row>
-    <row r="257" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="25"/>
       <c r="B257" s="25"/>
       <c r="C257" s="25"/>
@@ -13499,7 +13496,7 @@
       <c r="W257" s="25"/>
       <c r="X257" s="25"/>
     </row>
-    <row r="258" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="25"/>
       <c r="B258" s="25"/>
       <c r="C258" s="25"/>
@@ -13525,7 +13522,7 @@
       <c r="W258" s="25"/>
       <c r="X258" s="25"/>
     </row>
-    <row r="259" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="25"/>
       <c r="B259" s="25"/>
       <c r="C259" s="25"/>
@@ -13551,7 +13548,7 @@
       <c r="W259" s="25"/>
       <c r="X259" s="25"/>
     </row>
-    <row r="260" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="25"/>
       <c r="B260" s="25"/>
       <c r="C260" s="25"/>
@@ -13577,7 +13574,7 @@
       <c r="W260" s="25"/>
       <c r="X260" s="25"/>
     </row>
-    <row r="261" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="25"/>
       <c r="B261" s="25"/>
       <c r="C261" s="25"/>
@@ -13603,7 +13600,7 @@
       <c r="W261" s="25"/>
       <c r="X261" s="25"/>
     </row>
-    <row r="262" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="25"/>
       <c r="B262" s="25"/>
       <c r="C262" s="25"/>
@@ -13629,7 +13626,7 @@
       <c r="W262" s="25"/>
       <c r="X262" s="25"/>
     </row>
-    <row r="263" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="25"/>
       <c r="B263" s="25"/>
       <c r="C263" s="25"/>
@@ -13655,7 +13652,7 @@
       <c r="W263" s="25"/>
       <c r="X263" s="25"/>
     </row>
-    <row r="264" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="25"/>
       <c r="B264" s="25"/>
       <c r="C264" s="25"/>
@@ -13681,7 +13678,7 @@
       <c r="W264" s="25"/>
       <c r="X264" s="25"/>
     </row>
-    <row r="265" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="25"/>
       <c r="B265" s="25"/>
       <c r="C265" s="25"/>
@@ -13707,7 +13704,7 @@
       <c r="W265" s="25"/>
       <c r="X265" s="25"/>
     </row>
-    <row r="266" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="25"/>
       <c r="B266" s="25"/>
       <c r="C266" s="25"/>
@@ -13733,7 +13730,7 @@
       <c r="W266" s="25"/>
       <c r="X266" s="25"/>
     </row>
-    <row r="267" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="25"/>
       <c r="B267" s="25"/>
       <c r="C267" s="25"/>
@@ -13759,7 +13756,7 @@
       <c r="W267" s="25"/>
       <c r="X267" s="25"/>
     </row>
-    <row r="268" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="25"/>
       <c r="B268" s="25"/>
       <c r="C268" s="25"/>
@@ -13785,7 +13782,7 @@
       <c r="W268" s="25"/>
       <c r="X268" s="25"/>
     </row>
-    <row r="269" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="25"/>
       <c r="B269" s="25"/>
       <c r="C269" s="25"/>
@@ -13811,7 +13808,7 @@
       <c r="W269" s="25"/>
       <c r="X269" s="25"/>
     </row>
-    <row r="270" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="25"/>
       <c r="B270" s="25"/>
       <c r="C270" s="25"/>
@@ -13837,7 +13834,7 @@
       <c r="W270" s="25"/>
       <c r="X270" s="25"/>
     </row>
-    <row r="271" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="25"/>
       <c r="B271" s="25"/>
       <c r="C271" s="25"/>
@@ -13863,7 +13860,7 @@
       <c r="W271" s="25"/>
       <c r="X271" s="25"/>
     </row>
-    <row r="272" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="25"/>
       <c r="B272" s="25"/>
       <c r="C272" s="25"/>
@@ -13889,7 +13886,7 @@
       <c r="W272" s="25"/>
       <c r="X272" s="25"/>
     </row>
-    <row r="273" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="25"/>
       <c r="B273" s="25"/>
       <c r="C273" s="25"/>
@@ -13915,7 +13912,7 @@
       <c r="W273" s="25"/>
       <c r="X273" s="25"/>
     </row>
-    <row r="274" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="25"/>
       <c r="B274" s="25"/>
       <c r="C274" s="25"/>
@@ -13941,7 +13938,7 @@
       <c r="W274" s="25"/>
       <c r="X274" s="25"/>
     </row>
-    <row r="275" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="25"/>
       <c r="B275" s="25"/>
       <c r="C275" s="25"/>
@@ -13967,7 +13964,7 @@
       <c r="W275" s="25"/>
       <c r="X275" s="25"/>
     </row>
-    <row r="276" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="25"/>
       <c r="B276" s="25"/>
       <c r="C276" s="25"/>
@@ -13993,7 +13990,7 @@
       <c r="W276" s="25"/>
       <c r="X276" s="25"/>
     </row>
-    <row r="277" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="25"/>
       <c r="B277" s="25"/>
       <c r="C277" s="25"/>
@@ -14019,7 +14016,7 @@
       <c r="W277" s="25"/>
       <c r="X277" s="25"/>
     </row>
-    <row r="278" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="25"/>
       <c r="B278" s="25"/>
       <c r="C278" s="25"/>
@@ -14045,7 +14042,7 @@
       <c r="W278" s="25"/>
       <c r="X278" s="25"/>
     </row>
-    <row r="279" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="25"/>
       <c r="B279" s="25"/>
       <c r="C279" s="25"/>
@@ -14071,7 +14068,7 @@
       <c r="W279" s="25"/>
       <c r="X279" s="25"/>
     </row>
-    <row r="280" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="25"/>
       <c r="B280" s="25"/>
       <c r="C280" s="25"/>
@@ -14097,7 +14094,7 @@
       <c r="W280" s="25"/>
       <c r="X280" s="25"/>
     </row>
-    <row r="281" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="25"/>
       <c r="B281" s="25"/>
       <c r="C281" s="25"/>
@@ -14123,7 +14120,7 @@
       <c r="W281" s="25"/>
       <c r="X281" s="25"/>
     </row>
-    <row r="282" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="25"/>
       <c r="B282" s="25"/>
       <c r="C282" s="25"/>
@@ -14149,7 +14146,7 @@
       <c r="W282" s="25"/>
       <c r="X282" s="25"/>
     </row>
-    <row r="283" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="25"/>
       <c r="B283" s="25"/>
       <c r="C283" s="25"/>
@@ -14175,7 +14172,7 @@
       <c r="W283" s="25"/>
       <c r="X283" s="25"/>
     </row>
-    <row r="284" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="25"/>
       <c r="B284" s="25"/>
       <c r="C284" s="25"/>
@@ -14201,7 +14198,7 @@
       <c r="W284" s="25"/>
       <c r="X284" s="25"/>
     </row>
-    <row r="285" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="25"/>
       <c r="B285" s="25"/>
       <c r="C285" s="25"/>
@@ -14227,7 +14224,7 @@
       <c r="W285" s="25"/>
       <c r="X285" s="25"/>
     </row>
-    <row r="286" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="25"/>
       <c r="B286" s="25"/>
       <c r="C286" s="25"/>
@@ -14253,7 +14250,7 @@
       <c r="W286" s="25"/>
       <c r="X286" s="25"/>
     </row>
-    <row r="287" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="25"/>
       <c r="B287" s="25"/>
       <c r="C287" s="25"/>
@@ -14279,7 +14276,7 @@
       <c r="W287" s="25"/>
       <c r="X287" s="25"/>
     </row>
-    <row r="288" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="25"/>
       <c r="B288" s="25"/>
       <c r="C288" s="25"/>
@@ -14305,7 +14302,7 @@
       <c r="W288" s="25"/>
       <c r="X288" s="25"/>
     </row>
-    <row r="289" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="25"/>
       <c r="B289" s="25"/>
       <c r="C289" s="25"/>
@@ -14331,7 +14328,7 @@
       <c r="W289" s="25"/>
       <c r="X289" s="25"/>
     </row>
-    <row r="290" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="25"/>
       <c r="B290" s="25"/>
       <c r="C290" s="25"/>
@@ -14357,7 +14354,7 @@
       <c r="W290" s="25"/>
       <c r="X290" s="25"/>
     </row>
-    <row r="291" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="25"/>
       <c r="B291" s="25"/>
       <c r="C291" s="25"/>
@@ -14383,7 +14380,7 @@
       <c r="W291" s="25"/>
       <c r="X291" s="25"/>
     </row>
-    <row r="292" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="25"/>
       <c r="B292" s="25"/>
       <c r="C292" s="25"/>
@@ -14409,7 +14406,7 @@
       <c r="W292" s="25"/>
       <c r="X292" s="25"/>
     </row>
-    <row r="293" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="25"/>
       <c r="B293" s="25"/>
       <c r="C293" s="25"/>
@@ -14435,7 +14432,7 @@
       <c r="W293" s="25"/>
       <c r="X293" s="25"/>
     </row>
-    <row r="294" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="25"/>
       <c r="B294" s="25"/>
       <c r="C294" s="25"/>
@@ -14461,7 +14458,7 @@
       <c r="W294" s="25"/>
       <c r="X294" s="25"/>
     </row>
-    <row r="295" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="25"/>
       <c r="B295" s="25"/>
       <c r="C295" s="25"/>
@@ -14487,7 +14484,7 @@
       <c r="W295" s="25"/>
       <c r="X295" s="25"/>
     </row>
-    <row r="296" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="25"/>
       <c r="B296" s="25"/>
       <c r="C296" s="25"/>
@@ -14513,7 +14510,7 @@
       <c r="W296" s="25"/>
       <c r="X296" s="25"/>
     </row>
-    <row r="297" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="25"/>
       <c r="B297" s="25"/>
       <c r="C297" s="25"/>
@@ -14539,7 +14536,7 @@
       <c r="W297" s="25"/>
       <c r="X297" s="25"/>
     </row>
-    <row r="298" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="25"/>
       <c r="B298" s="25"/>
       <c r="C298" s="25"/>
@@ -14565,7 +14562,7 @@
       <c r="W298" s="25"/>
       <c r="X298" s="25"/>
     </row>
-    <row r="299" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="25"/>
       <c r="B299" s="25"/>
       <c r="C299" s="25"/>
@@ -14591,7 +14588,7 @@
       <c r="W299" s="25"/>
       <c r="X299" s="25"/>
     </row>
-    <row r="300" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="25"/>
       <c r="B300" s="25"/>
       <c r="C300" s="25"/>
@@ -14617,7 +14614,7 @@
       <c r="W300" s="25"/>
       <c r="X300" s="25"/>
     </row>
-    <row r="301" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="25"/>
       <c r="B301" s="25"/>
       <c r="C301" s="25"/>
@@ -14643,7 +14640,7 @@
       <c r="W301" s="25"/>
       <c r="X301" s="25"/>
     </row>
-    <row r="302" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="25"/>
       <c r="B302" s="25"/>
       <c r="C302" s="25"/>
@@ -14669,7 +14666,7 @@
       <c r="W302" s="25"/>
       <c r="X302" s="25"/>
     </row>
-    <row r="303" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="25"/>
       <c r="B303" s="25"/>
       <c r="C303" s="25"/>
@@ -14695,7 +14692,7 @@
       <c r="W303" s="25"/>
       <c r="X303" s="25"/>
     </row>
-    <row r="304" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="25"/>
       <c r="B304" s="25"/>
       <c r="C304" s="25"/>
@@ -14721,7 +14718,7 @@
       <c r="W304" s="25"/>
       <c r="X304" s="25"/>
     </row>
-    <row r="305" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="25"/>
       <c r="B305" s="25"/>
       <c r="C305" s="25"/>
@@ -14747,7 +14744,7 @@
       <c r="W305" s="25"/>
       <c r="X305" s="25"/>
     </row>
-    <row r="306" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="25"/>
       <c r="B306" s="25"/>
       <c r="C306" s="25"/>
@@ -14773,7 +14770,7 @@
       <c r="W306" s="25"/>
       <c r="X306" s="25"/>
     </row>
-    <row r="307" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="25"/>
       <c r="B307" s="25"/>
       <c r="C307" s="25"/>
@@ -14799,7 +14796,7 @@
       <c r="W307" s="25"/>
       <c r="X307" s="25"/>
     </row>
-    <row r="308" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="25"/>
       <c r="B308" s="25"/>
       <c r="C308" s="25"/>
@@ -14825,7 +14822,7 @@
       <c r="W308" s="25"/>
       <c r="X308" s="25"/>
     </row>
-    <row r="309" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="25"/>
       <c r="B309" s="25"/>
       <c r="C309" s="25"/>
@@ -14851,7 +14848,7 @@
       <c r="W309" s="25"/>
       <c r="X309" s="25"/>
     </row>
-    <row r="310" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="25"/>
       <c r="B310" s="25"/>
       <c r="C310" s="25"/>
@@ -14877,7 +14874,7 @@
       <c r="W310" s="25"/>
       <c r="X310" s="25"/>
     </row>
-    <row r="311" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="25"/>
       <c r="B311" s="25"/>
       <c r="C311" s="25"/>
@@ -14903,7 +14900,7 @@
       <c r="W311" s="25"/>
       <c r="X311" s="25"/>
     </row>
-    <row r="312" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="25"/>
       <c r="B312" s="25"/>
       <c r="C312" s="25"/>
@@ -14929,7 +14926,7 @@
       <c r="W312" s="25"/>
       <c r="X312" s="25"/>
     </row>
-    <row r="313" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="25"/>
       <c r="B313" s="25"/>
       <c r="C313" s="25"/>
@@ -14955,7 +14952,7 @@
       <c r="W313" s="25"/>
       <c r="X313" s="25"/>
     </row>
-    <row r="314" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="25"/>
       <c r="B314" s="25"/>
       <c r="C314" s="25"/>
@@ -14981,7 +14978,7 @@
       <c r="W314" s="25"/>
       <c r="X314" s="25"/>
     </row>
-    <row r="315" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="25"/>
       <c r="B315" s="25"/>
       <c r="C315" s="25"/>
@@ -15007,7 +15004,7 @@
       <c r="W315" s="25"/>
       <c r="X315" s="25"/>
     </row>
-    <row r="316" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="25"/>
       <c r="B316" s="25"/>
       <c r="C316" s="25"/>
@@ -15033,7 +15030,7 @@
       <c r="W316" s="25"/>
       <c r="X316" s="25"/>
     </row>
-    <row r="317" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="25"/>
       <c r="B317" s="25"/>
       <c r="C317" s="25"/>
@@ -15059,7 +15056,7 @@
       <c r="W317" s="25"/>
       <c r="X317" s="25"/>
     </row>
-    <row r="318" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="25"/>
       <c r="B318" s="25"/>
       <c r="C318" s="25"/>
@@ -15085,7 +15082,7 @@
       <c r="W318" s="25"/>
       <c r="X318" s="25"/>
     </row>
-    <row r="319" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="25"/>
       <c r="B319" s="25"/>
       <c r="C319" s="25"/>
@@ -15111,7 +15108,7 @@
       <c r="W319" s="25"/>
       <c r="X319" s="25"/>
     </row>
-    <row r="320" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="25"/>
       <c r="B320" s="25"/>
       <c r="C320" s="25"/>
@@ -15137,7 +15134,7 @@
       <c r="W320" s="25"/>
       <c r="X320" s="25"/>
     </row>
-    <row r="321" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="25"/>
       <c r="B321" s="25"/>
       <c r="C321" s="25"/>
@@ -15163,7 +15160,7 @@
       <c r="W321" s="25"/>
       <c r="X321" s="25"/>
     </row>
-    <row r="322" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="25"/>
       <c r="B322" s="25"/>
       <c r="C322" s="25"/>
@@ -15189,7 +15186,7 @@
       <c r="W322" s="25"/>
       <c r="X322" s="25"/>
     </row>
-    <row r="323" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="25"/>
       <c r="B323" s="25"/>
       <c r="C323" s="25"/>
@@ -15215,7 +15212,7 @@
       <c r="W323" s="25"/>
       <c r="X323" s="25"/>
     </row>
-    <row r="324" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="25"/>
       <c r="B324" s="25"/>
       <c r="C324" s="25"/>
@@ -15241,7 +15238,7 @@
       <c r="W324" s="25"/>
       <c r="X324" s="25"/>
     </row>
-    <row r="325" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="25"/>
       <c r="B325" s="25"/>
       <c r="C325" s="25"/>
@@ -15267,7 +15264,7 @@
       <c r="W325" s="25"/>
       <c r="X325" s="25"/>
     </row>
-    <row r="326" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="25"/>
       <c r="B326" s="25"/>
       <c r="C326" s="25"/>
@@ -15293,7 +15290,7 @@
       <c r="W326" s="25"/>
       <c r="X326" s="25"/>
     </row>
-    <row r="327" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="25"/>
       <c r="B327" s="25"/>
       <c r="C327" s="25"/>
@@ -15319,7 +15316,7 @@
       <c r="W327" s="25"/>
       <c r="X327" s="25"/>
     </row>
-    <row r="328" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="25"/>
       <c r="B328" s="25"/>
       <c r="C328" s="25"/>
@@ -15345,7 +15342,7 @@
       <c r="W328" s="25"/>
       <c r="X328" s="25"/>
     </row>
-    <row r="329" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="25"/>
       <c r="B329" s="25"/>
       <c r="C329" s="25"/>
@@ -15371,7 +15368,7 @@
       <c r="W329" s="25"/>
       <c r="X329" s="25"/>
     </row>
-    <row r="330" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="25"/>
       <c r="B330" s="25"/>
       <c r="C330" s="25"/>
@@ -15397,7 +15394,7 @@
       <c r="W330" s="25"/>
       <c r="X330" s="25"/>
     </row>
-    <row r="331" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="25"/>
       <c r="B331" s="25"/>
       <c r="C331" s="25"/>
@@ -15423,7 +15420,7 @@
       <c r="W331" s="25"/>
       <c r="X331" s="25"/>
     </row>
-    <row r="332" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="25"/>
       <c r="B332" s="25"/>
       <c r="C332" s="25"/>
@@ -15449,7 +15446,7 @@
       <c r="W332" s="25"/>
       <c r="X332" s="25"/>
     </row>
-    <row r="333" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="25"/>
       <c r="B333" s="25"/>
       <c r="C333" s="25"/>
@@ -15475,7 +15472,7 @@
       <c r="W333" s="25"/>
       <c r="X333" s="25"/>
     </row>
-    <row r="334" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="25"/>
       <c r="B334" s="25"/>
       <c r="C334" s="25"/>
@@ -15501,7 +15498,7 @@
       <c r="W334" s="25"/>
       <c r="X334" s="25"/>
     </row>
-    <row r="335" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="25"/>
       <c r="B335" s="25"/>
       <c r="C335" s="25"/>
@@ -15527,7 +15524,7 @@
       <c r="W335" s="25"/>
       <c r="X335" s="25"/>
     </row>
-    <row r="336" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="25"/>
       <c r="B336" s="25"/>
       <c r="C336" s="25"/>
@@ -15553,7 +15550,7 @@
       <c r="W336" s="25"/>
       <c r="X336" s="25"/>
     </row>
-    <row r="337" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="25"/>
       <c r="B337" s="25"/>
       <c r="C337" s="25"/>
@@ -15579,7 +15576,7 @@
       <c r="W337" s="25"/>
       <c r="X337" s="25"/>
     </row>
-    <row r="338" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="25"/>
       <c r="B338" s="25"/>
       <c r="C338" s="25"/>
@@ -15605,7 +15602,7 @@
       <c r="W338" s="25"/>
       <c r="X338" s="25"/>
     </row>
-    <row r="339" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="25"/>
       <c r="B339" s="25"/>
       <c r="C339" s="25"/>
@@ -15631,7 +15628,7 @@
       <c r="W339" s="25"/>
       <c r="X339" s="25"/>
     </row>
-    <row r="340" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="25"/>
       <c r="B340" s="25"/>
       <c r="C340" s="25"/>
@@ -15657,7 +15654,7 @@
       <c r="W340" s="25"/>
       <c r="X340" s="25"/>
     </row>
-    <row r="341" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="25"/>
       <c r="B341" s="25"/>
       <c r="C341" s="25"/>
@@ -15683,7 +15680,7 @@
       <c r="W341" s="25"/>
       <c r="X341" s="25"/>
     </row>
-    <row r="342" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="25"/>
       <c r="B342" s="25"/>
       <c r="C342" s="25"/>
@@ -15709,7 +15706,7 @@
       <c r="W342" s="25"/>
       <c r="X342" s="25"/>
     </row>
-    <row r="343" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="25"/>
       <c r="B343" s="25"/>
       <c r="C343" s="25"/>
@@ -15735,7 +15732,7 @@
       <c r="W343" s="25"/>
       <c r="X343" s="25"/>
     </row>
-    <row r="344" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="25"/>
       <c r="B344" s="25"/>
       <c r="C344" s="25"/>
@@ -15761,7 +15758,7 @@
       <c r="W344" s="25"/>
       <c r="X344" s="25"/>
     </row>
-    <row r="345" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="25"/>
       <c r="B345" s="25"/>
       <c r="C345" s="25"/>
@@ -15787,7 +15784,7 @@
       <c r="W345" s="25"/>
       <c r="X345" s="25"/>
     </row>
-    <row r="346" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="25"/>
       <c r="B346" s="25"/>
       <c r="C346" s="25"/>
@@ -15813,7 +15810,7 @@
       <c r="W346" s="25"/>
       <c r="X346" s="25"/>
     </row>
-    <row r="347" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="25"/>
       <c r="B347" s="25"/>
       <c r="C347" s="25"/>
@@ -15839,7 +15836,7 @@
       <c r="W347" s="25"/>
       <c r="X347" s="25"/>
     </row>
-    <row r="348" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="25"/>
       <c r="B348" s="25"/>
       <c r="C348" s="25"/>
@@ -15865,7 +15862,7 @@
       <c r="W348" s="25"/>
       <c r="X348" s="25"/>
     </row>
-    <row r="349" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="25"/>
       <c r="B349" s="25"/>
       <c r="C349" s="25"/>
@@ -15891,7 +15888,7 @@
       <c r="W349" s="25"/>
       <c r="X349" s="25"/>
     </row>
-    <row r="350" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="25"/>
       <c r="B350" s="25"/>
       <c r="C350" s="25"/>
@@ -15917,7 +15914,7 @@
       <c r="W350" s="25"/>
       <c r="X350" s="25"/>
     </row>
-    <row r="351" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="25"/>
       <c r="B351" s="25"/>
       <c r="C351" s="25"/>
@@ -15943,7 +15940,7 @@
       <c r="W351" s="25"/>
       <c r="X351" s="25"/>
     </row>
-    <row r="352" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="25"/>
       <c r="B352" s="25"/>
       <c r="C352" s="25"/>
@@ -15969,7 +15966,7 @@
       <c r="W352" s="25"/>
       <c r="X352" s="25"/>
     </row>
-    <row r="353" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="25"/>
       <c r="B353" s="25"/>
       <c r="C353" s="25"/>
@@ -15995,7 +15992,7 @@
       <c r="W353" s="25"/>
       <c r="X353" s="25"/>
     </row>
-    <row r="354" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="25"/>
       <c r="B354" s="25"/>
       <c r="C354" s="25"/>
@@ -16021,7 +16018,7 @@
       <c r="W354" s="25"/>
       <c r="X354" s="25"/>
     </row>
-    <row r="355" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="25"/>
       <c r="B355" s="25"/>
       <c r="C355" s="25"/>
@@ -16047,7 +16044,7 @@
       <c r="W355" s="25"/>
       <c r="X355" s="25"/>
     </row>
-    <row r="356" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="25"/>
       <c r="B356" s="25"/>
       <c r="C356" s="25"/>
@@ -16073,7 +16070,7 @@
       <c r="W356" s="25"/>
       <c r="X356" s="25"/>
     </row>
-    <row r="357" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="25"/>
       <c r="B357" s="25"/>
       <c r="C357" s="25"/>
@@ -16099,7 +16096,7 @@
       <c r="W357" s="25"/>
       <c r="X357" s="25"/>
     </row>
-    <row r="358" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="25"/>
       <c r="B358" s="25"/>
       <c r="C358" s="25"/>
@@ -16125,7 +16122,7 @@
       <c r="W358" s="25"/>
       <c r="X358" s="25"/>
     </row>
-    <row r="359" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="25"/>
       <c r="B359" s="25"/>
       <c r="C359" s="25"/>
@@ -16151,7 +16148,7 @@
       <c r="W359" s="25"/>
       <c r="X359" s="25"/>
     </row>
-    <row r="360" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="25"/>
       <c r="B360" s="25"/>
       <c r="C360" s="25"/>
@@ -16177,7 +16174,7 @@
       <c r="W360" s="25"/>
       <c r="X360" s="25"/>
     </row>
-    <row r="361" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="25"/>
       <c r="B361" s="25"/>
       <c r="C361" s="25"/>
@@ -16203,7 +16200,7 @@
       <c r="W361" s="25"/>
       <c r="X361" s="25"/>
     </row>
-    <row r="362" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="25"/>
       <c r="B362" s="25"/>
       <c r="C362" s="25"/>
@@ -16229,7 +16226,7 @@
       <c r="W362" s="25"/>
       <c r="X362" s="25"/>
     </row>
-    <row r="363" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="25"/>
       <c r="B363" s="25"/>
       <c r="C363" s="25"/>
@@ -16255,7 +16252,7 @@
       <c r="W363" s="25"/>
       <c r="X363" s="25"/>
     </row>
-    <row r="364" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="25"/>
       <c r="B364" s="25"/>
       <c r="C364" s="25"/>
@@ -16281,7 +16278,7 @@
       <c r="W364" s="25"/>
       <c r="X364" s="25"/>
     </row>
-    <row r="365" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="25"/>
       <c r="B365" s="25"/>
       <c r="C365" s="25"/>
@@ -16307,7 +16304,7 @@
       <c r="W365" s="25"/>
       <c r="X365" s="25"/>
     </row>
-    <row r="366" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="25"/>
       <c r="B366" s="25"/>
       <c r="C366" s="25"/>
@@ -16333,7 +16330,7 @@
       <c r="W366" s="25"/>
       <c r="X366" s="25"/>
     </row>
-    <row r="367" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="25"/>
       <c r="B367" s="25"/>
       <c r="C367" s="25"/>
@@ -16359,7 +16356,7 @@
       <c r="W367" s="25"/>
       <c r="X367" s="25"/>
     </row>
-    <row r="368" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="25"/>
       <c r="B368" s="25"/>
       <c r="C368" s="25"/>
@@ -16385,7 +16382,7 @@
       <c r="W368" s="25"/>
       <c r="X368" s="25"/>
     </row>
-    <row r="369" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="25"/>
       <c r="B369" s="25"/>
       <c r="C369" s="25"/>
@@ -16411,7 +16408,7 @@
       <c r="W369" s="25"/>
       <c r="X369" s="25"/>
     </row>
-    <row r="370" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="25"/>
       <c r="B370" s="25"/>
       <c r="C370" s="25"/>
@@ -16437,7 +16434,7 @@
       <c r="W370" s="25"/>
       <c r="X370" s="25"/>
     </row>
-    <row r="371" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="25"/>
       <c r="B371" s="25"/>
       <c r="C371" s="25"/>
@@ -16463,7 +16460,7 @@
       <c r="W371" s="25"/>
       <c r="X371" s="25"/>
     </row>
-    <row r="372" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="25"/>
       <c r="B372" s="25"/>
       <c r="C372" s="25"/>
@@ -16489,7 +16486,7 @@
       <c r="W372" s="25"/>
       <c r="X372" s="25"/>
     </row>
-    <row r="373" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="25"/>
       <c r="B373" s="25"/>
       <c r="C373" s="25"/>
@@ -16515,7 +16512,7 @@
       <c r="W373" s="25"/>
       <c r="X373" s="25"/>
     </row>
-    <row r="374" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="25"/>
       <c r="B374" s="25"/>
       <c r="C374" s="25"/>
@@ -16541,7 +16538,7 @@
       <c r="W374" s="25"/>
       <c r="X374" s="25"/>
     </row>
-    <row r="375" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="25"/>
       <c r="B375" s="25"/>
       <c r="C375" s="25"/>
@@ -16567,7 +16564,7 @@
       <c r="W375" s="25"/>
       <c r="X375" s="25"/>
     </row>
-    <row r="376" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="25"/>
       <c r="B376" s="25"/>
       <c r="C376" s="25"/>
@@ -16593,7 +16590,7 @@
       <c r="W376" s="25"/>
       <c r="X376" s="25"/>
     </row>
-    <row r="377" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="25"/>
       <c r="B377" s="25"/>
       <c r="C377" s="25"/>
@@ -16619,7 +16616,7 @@
       <c r="W377" s="25"/>
       <c r="X377" s="25"/>
     </row>
-    <row r="378" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="25"/>
       <c r="B378" s="25"/>
       <c r="C378" s="25"/>
@@ -16645,7 +16642,7 @@
       <c r="W378" s="25"/>
       <c r="X378" s="25"/>
     </row>
-    <row r="379" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="25"/>
       <c r="B379" s="25"/>
       <c r="C379" s="25"/>
@@ -16671,7 +16668,7 @@
       <c r="W379" s="25"/>
       <c r="X379" s="25"/>
     </row>
-    <row r="380" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="25"/>
       <c r="B380" s="25"/>
       <c r="C380" s="25"/>
@@ -16697,7 +16694,7 @@
       <c r="W380" s="25"/>
       <c r="X380" s="25"/>
     </row>
-    <row r="381" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="25"/>
       <c r="B381" s="25"/>
       <c r="C381" s="25"/>
@@ -16723,7 +16720,7 @@
       <c r="W381" s="25"/>
       <c r="X381" s="25"/>
     </row>
-    <row r="382" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="25"/>
       <c r="B382" s="25"/>
       <c r="C382" s="25"/>
@@ -16749,7 +16746,7 @@
       <c r="W382" s="25"/>
       <c r="X382" s="25"/>
     </row>
-    <row r="383" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="25"/>
       <c r="B383" s="25"/>
       <c r="C383" s="25"/>
@@ -16775,7 +16772,7 @@
       <c r="W383" s="25"/>
       <c r="X383" s="25"/>
     </row>
-    <row r="384" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="25"/>
       <c r="B384" s="25"/>
       <c r="C384" s="25"/>
@@ -16801,7 +16798,7 @@
       <c r="W384" s="25"/>
       <c r="X384" s="25"/>
     </row>
-    <row r="385" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="25"/>
       <c r="B385" s="25"/>
       <c r="C385" s="25"/>
@@ -16827,7 +16824,7 @@
       <c r="W385" s="25"/>
       <c r="X385" s="25"/>
     </row>
-    <row r="386" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="25"/>
       <c r="B386" s="25"/>
       <c r="C386" s="25"/>
@@ -16853,7 +16850,7 @@
       <c r="W386" s="25"/>
       <c r="X386" s="25"/>
     </row>
-    <row r="387" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="25"/>
       <c r="B387" s="25"/>
       <c r="C387" s="25"/>
@@ -16879,7 +16876,7 @@
       <c r="W387" s="25"/>
       <c r="X387" s="25"/>
     </row>
-    <row r="388" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="25"/>
       <c r="B388" s="25"/>
       <c r="C388" s="25"/>
@@ -16905,7 +16902,7 @@
       <c r="W388" s="25"/>
       <c r="X388" s="25"/>
     </row>
-    <row r="389" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="25"/>
       <c r="B389" s="25"/>
       <c r="C389" s="25"/>
@@ -16931,7 +16928,7 @@
       <c r="W389" s="25"/>
       <c r="X389" s="25"/>
     </row>
-    <row r="390" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="25"/>
       <c r="B390" s="25"/>
       <c r="C390" s="25"/>
@@ -16957,7 +16954,7 @@
       <c r="W390" s="25"/>
       <c r="X390" s="25"/>
     </row>
-    <row r="391" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="25"/>
       <c r="B391" s="25"/>
       <c r="C391" s="25"/>
@@ -16983,7 +16980,7 @@
       <c r="W391" s="25"/>
       <c r="X391" s="25"/>
     </row>
-    <row r="392" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="25"/>
       <c r="B392" s="25"/>
       <c r="C392" s="25"/>
@@ -17009,7 +17006,7 @@
       <c r="W392" s="25"/>
       <c r="X392" s="25"/>
     </row>
-    <row r="393" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="25"/>
       <c r="B393" s="25"/>
       <c r="C393" s="25"/>
@@ -17035,7 +17032,7 @@
       <c r="W393" s="25"/>
       <c r="X393" s="25"/>
     </row>
-    <row r="394" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="25"/>
       <c r="B394" s="25"/>
       <c r="C394" s="25"/>
@@ -17061,7 +17058,7 @@
       <c r="W394" s="25"/>
       <c r="X394" s="25"/>
     </row>
-    <row r="395" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="25"/>
       <c r="B395" s="25"/>
       <c r="C395" s="25"/>
@@ -17087,7 +17084,7 @@
       <c r="W395" s="25"/>
       <c r="X395" s="25"/>
     </row>
-    <row r="396" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="25"/>
       <c r="B396" s="25"/>
       <c r="C396" s="25"/>
@@ -17113,7 +17110,7 @@
       <c r="W396" s="25"/>
       <c r="X396" s="25"/>
     </row>
-    <row r="397" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="25"/>
       <c r="B397" s="25"/>
       <c r="C397" s="25"/>
@@ -17139,7 +17136,7 @@
       <c r="W397" s="25"/>
       <c r="X397" s="25"/>
     </row>
-    <row r="398" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="25"/>
       <c r="B398" s="25"/>
       <c r="C398" s="25"/>
@@ -17165,7 +17162,7 @@
       <c r="W398" s="25"/>
       <c r="X398" s="25"/>
     </row>
-    <row r="399" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="25"/>
       <c r="B399" s="25"/>
       <c r="C399" s="25"/>
@@ -17191,7 +17188,7 @@
       <c r="W399" s="25"/>
       <c r="X399" s="25"/>
     </row>
-    <row r="400" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="25"/>
       <c r="B400" s="25"/>
       <c r="C400" s="25"/>
@@ -17217,7 +17214,7 @@
       <c r="W400" s="25"/>
       <c r="X400" s="25"/>
     </row>
-    <row r="401" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="25"/>
       <c r="B401" s="25"/>
       <c r="C401" s="25"/>
@@ -17243,7 +17240,7 @@
       <c r="W401" s="25"/>
       <c r="X401" s="25"/>
     </row>
-    <row r="402" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="25"/>
       <c r="B402" s="25"/>
       <c r="C402" s="25"/>
@@ -17269,7 +17266,7 @@
       <c r="W402" s="25"/>
       <c r="X402" s="25"/>
     </row>
-    <row r="403" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="25"/>
       <c r="B403" s="25"/>
       <c r="C403" s="25"/>
@@ -17295,7 +17292,7 @@
       <c r="W403" s="25"/>
       <c r="X403" s="25"/>
     </row>
-    <row r="404" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="25"/>
       <c r="B404" s="25"/>
       <c r="C404" s="25"/>
@@ -17321,7 +17318,7 @@
       <c r="W404" s="25"/>
       <c r="X404" s="25"/>
     </row>
-    <row r="405" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="25"/>
       <c r="B405" s="25"/>
       <c r="C405" s="25"/>
@@ -17347,7 +17344,7 @@
       <c r="W405" s="25"/>
       <c r="X405" s="25"/>
     </row>
-    <row r="406" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="25"/>
       <c r="B406" s="25"/>
       <c r="C406" s="25"/>
@@ -17373,7 +17370,7 @@
       <c r="W406" s="25"/>
       <c r="X406" s="25"/>
     </row>
-    <row r="407" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="25"/>
       <c r="B407" s="25"/>
       <c r="C407" s="25"/>
@@ -17399,7 +17396,7 @@
       <c r="W407" s="25"/>
       <c r="X407" s="25"/>
     </row>
-    <row r="408" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="25"/>
       <c r="B408" s="25"/>
       <c r="C408" s="25"/>
@@ -17425,7 +17422,7 @@
       <c r="W408" s="25"/>
       <c r="X408" s="25"/>
     </row>
-    <row r="409" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="25"/>
       <c r="B409" s="25"/>
       <c r="C409" s="25"/>
@@ -17451,7 +17448,7 @@
       <c r="W409" s="25"/>
       <c r="X409" s="25"/>
     </row>
-    <row r="410" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="25"/>
       <c r="B410" s="25"/>
       <c r="C410" s="25"/>
@@ -17477,7 +17474,7 @@
       <c r="W410" s="25"/>
       <c r="X410" s="25"/>
     </row>
-    <row r="411" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="25"/>
       <c r="B411" s="25"/>
       <c r="C411" s="25"/>
@@ -17503,7 +17500,7 @@
       <c r="W411" s="25"/>
       <c r="X411" s="25"/>
     </row>
-    <row r="412" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="25"/>
       <c r="B412" s="25"/>
       <c r="C412" s="25"/>
@@ -17529,7 +17526,7 @@
       <c r="W412" s="25"/>
       <c r="X412" s="25"/>
     </row>
-    <row r="413" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="25"/>
       <c r="B413" s="25"/>
       <c r="C413" s="25"/>
@@ -17555,7 +17552,7 @@
       <c r="W413" s="25"/>
       <c r="X413" s="25"/>
     </row>
-    <row r="414" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="25"/>
       <c r="B414" s="25"/>
       <c r="C414" s="25"/>
@@ -17581,7 +17578,7 @@
       <c r="W414" s="25"/>
       <c r="X414" s="25"/>
     </row>
-    <row r="415" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="25"/>
       <c r="B415" s="25"/>
       <c r="C415" s="25"/>
@@ -17607,7 +17604,7 @@
       <c r="W415" s="25"/>
       <c r="X415" s="25"/>
     </row>
-    <row r="416" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="25"/>
       <c r="B416" s="25"/>
       <c r="C416" s="25"/>
@@ -17633,7 +17630,7 @@
       <c r="W416" s="25"/>
       <c r="X416" s="25"/>
     </row>
-    <row r="417" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="25"/>
       <c r="B417" s="25"/>
       <c r="C417" s="25"/>
@@ -17659,7 +17656,7 @@
       <c r="W417" s="25"/>
       <c r="X417" s="25"/>
     </row>
-    <row r="418" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="25"/>
       <c r="B418" s="25"/>
       <c r="C418" s="25"/>
@@ -17685,7 +17682,7 @@
       <c r="W418" s="25"/>
       <c r="X418" s="25"/>
     </row>
-    <row r="419" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="25"/>
       <c r="B419" s="25"/>
       <c r="C419" s="25"/>
@@ -17711,7 +17708,7 @@
       <c r="W419" s="25"/>
       <c r="X419" s="25"/>
     </row>
-    <row r="420" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="25"/>
       <c r="B420" s="25"/>
       <c r="C420" s="25"/>
@@ -17737,7 +17734,7 @@
       <c r="W420" s="25"/>
       <c r="X420" s="25"/>
     </row>
-    <row r="421" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="25"/>
       <c r="B421" s="25"/>
       <c r="C421" s="25"/>
@@ -17763,7 +17760,7 @@
       <c r="W421" s="25"/>
       <c r="X421" s="25"/>
     </row>
-    <row r="422" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="25"/>
       <c r="B422" s="25"/>
       <c r="C422" s="25"/>
@@ -17789,7 +17786,7 @@
       <c r="W422" s="25"/>
       <c r="X422" s="25"/>
     </row>
-    <row r="423" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="25"/>
       <c r="B423" s="25"/>
       <c r="C423" s="25"/>
@@ -17815,7 +17812,7 @@
       <c r="W423" s="25"/>
       <c r="X423" s="25"/>
     </row>
-    <row r="424" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="25"/>
       <c r="B424" s="25"/>
       <c r="C424" s="25"/>
@@ -17841,7 +17838,7 @@
       <c r="W424" s="25"/>
       <c r="X424" s="25"/>
     </row>
-    <row r="425" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="25"/>
       <c r="B425" s="25"/>
       <c r="C425" s="25"/>
@@ -17867,7 +17864,7 @@
       <c r="W425" s="25"/>
       <c r="X425" s="25"/>
     </row>
-    <row r="426" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="25"/>
       <c r="B426" s="25"/>
       <c r="C426" s="25"/>
@@ -17893,7 +17890,7 @@
       <c r="W426" s="25"/>
       <c r="X426" s="25"/>
     </row>
-    <row r="427" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="25"/>
       <c r="B427" s="25"/>
       <c r="C427" s="25"/>
@@ -17919,7 +17916,7 @@
       <c r="W427" s="25"/>
       <c r="X427" s="25"/>
     </row>
-    <row r="428" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="25"/>
       <c r="B428" s="25"/>
       <c r="C428" s="25"/>
@@ -17945,7 +17942,7 @@
       <c r="W428" s="25"/>
       <c r="X428" s="25"/>
     </row>
-    <row r="429" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="25"/>
       <c r="B429" s="25"/>
       <c r="C429" s="25"/>
@@ -17971,7 +17968,7 @@
       <c r="W429" s="25"/>
       <c r="X429" s="25"/>
     </row>
-    <row r="430" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="25"/>
       <c r="B430" s="25"/>
       <c r="C430" s="25"/>
@@ -17997,7 +17994,7 @@
       <c r="W430" s="25"/>
       <c r="X430" s="25"/>
     </row>
-    <row r="431" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="25"/>
       <c r="B431" s="25"/>
       <c r="C431" s="25"/>
@@ -18023,7 +18020,7 @@
       <c r="W431" s="25"/>
       <c r="X431" s="25"/>
     </row>
-    <row r="432" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="25"/>
       <c r="B432" s="25"/>
       <c r="C432" s="25"/>
@@ -18049,7 +18046,7 @@
       <c r="W432" s="25"/>
       <c r="X432" s="25"/>
     </row>
-    <row r="433" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="25"/>
       <c r="B433" s="25"/>
       <c r="C433" s="25"/>
@@ -18075,7 +18072,7 @@
       <c r="W433" s="25"/>
       <c r="X433" s="25"/>
     </row>
-    <row r="434" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="25"/>
       <c r="B434" s="25"/>
       <c r="C434" s="25"/>
@@ -18101,7 +18098,7 @@
       <c r="W434" s="25"/>
       <c r="X434" s="25"/>
     </row>
-    <row r="435" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="25"/>
       <c r="B435" s="25"/>
       <c r="C435" s="25"/>
@@ -18127,7 +18124,7 @@
       <c r="W435" s="25"/>
       <c r="X435" s="25"/>
     </row>
-    <row r="436" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="25"/>
       <c r="B436" s="25"/>
       <c r="C436" s="25"/>
@@ -18153,7 +18150,7 @@
       <c r="W436" s="25"/>
       <c r="X436" s="25"/>
     </row>
-    <row r="437" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="25"/>
       <c r="B437" s="25"/>
       <c r="C437" s="25"/>
@@ -18179,7 +18176,7 @@
       <c r="W437" s="25"/>
       <c r="X437" s="25"/>
     </row>
-    <row r="438" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="25"/>
       <c r="B438" s="25"/>
       <c r="C438" s="25"/>
@@ -18205,7 +18202,7 @@
       <c r="W438" s="25"/>
       <c r="X438" s="25"/>
     </row>
-    <row r="439" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="25"/>
       <c r="B439" s="25"/>
       <c r="C439" s="25"/>
@@ -18231,7 +18228,7 @@
       <c r="W439" s="25"/>
       <c r="X439" s="25"/>
     </row>
-    <row r="440" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="25"/>
       <c r="B440" s="25"/>
       <c r="C440" s="25"/>
@@ -18257,7 +18254,7 @@
       <c r="W440" s="25"/>
       <c r="X440" s="25"/>
     </row>
-    <row r="441" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="25"/>
       <c r="B441" s="25"/>
       <c r="C441" s="25"/>
@@ -18283,7 +18280,7 @@
       <c r="W441" s="25"/>
       <c r="X441" s="25"/>
     </row>
-    <row r="442" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="25"/>
       <c r="B442" s="25"/>
       <c r="C442" s="25"/>
@@ -18309,7 +18306,7 @@
       <c r="W442" s="25"/>
       <c r="X442" s="25"/>
     </row>
-    <row r="443" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="25"/>
       <c r="B443" s="25"/>
       <c r="C443" s="25"/>
@@ -18335,7 +18332,7 @@
       <c r="W443" s="25"/>
       <c r="X443" s="25"/>
     </row>
-    <row r="444" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="25"/>
       <c r="B444" s="25"/>
       <c r="C444" s="25"/>
@@ -18361,7 +18358,7 @@
       <c r="W444" s="25"/>
       <c r="X444" s="25"/>
     </row>
-    <row r="445" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="25"/>
       <c r="B445" s="25"/>
       <c r="C445" s="25"/>
@@ -18387,7 +18384,7 @@
       <c r="W445" s="25"/>
       <c r="X445" s="25"/>
     </row>
-    <row r="446" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="25"/>
       <c r="B446" s="25"/>
       <c r="C446" s="25"/>
@@ -18413,7 +18410,7 @@
       <c r="W446" s="25"/>
       <c r="X446" s="25"/>
     </row>
-    <row r="447" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="25"/>
       <c r="B447" s="25"/>
       <c r="C447" s="25"/>
@@ -18439,7 +18436,7 @@
       <c r="W447" s="25"/>
       <c r="X447" s="25"/>
     </row>
-    <row r="448" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="25"/>
       <c r="B448" s="25"/>
       <c r="C448" s="25"/>
@@ -18465,7 +18462,7 @@
       <c r="W448" s="25"/>
       <c r="X448" s="25"/>
     </row>
-    <row r="449" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="25"/>
       <c r="B449" s="25"/>
       <c r="C449" s="25"/>
@@ -18491,7 +18488,7 @@
       <c r="W449" s="25"/>
       <c r="X449" s="25"/>
     </row>
-    <row r="450" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="25"/>
       <c r="B450" s="25"/>
       <c r="C450" s="25"/>
@@ -18517,7 +18514,7 @@
       <c r="W450" s="25"/>
       <c r="X450" s="25"/>
     </row>
-    <row r="451" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="25"/>
       <c r="B451" s="25"/>
       <c r="C451" s="25"/>
@@ -18543,7 +18540,7 @@
       <c r="W451" s="25"/>
       <c r="X451" s="25"/>
     </row>
-    <row r="452" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="25"/>
       <c r="B452" s="25"/>
       <c r="C452" s="25"/>
@@ -18569,7 +18566,7 @@
       <c r="W452" s="25"/>
       <c r="X452" s="25"/>
     </row>
-    <row r="453" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="25"/>
       <c r="B453" s="25"/>
       <c r="C453" s="25"/>
@@ -18595,7 +18592,7 @@
       <c r="W453" s="25"/>
       <c r="X453" s="25"/>
     </row>
-    <row r="454" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="25"/>
       <c r="B454" s="25"/>
       <c r="C454" s="25"/>
@@ -18621,7 +18618,7 @@
       <c r="W454" s="25"/>
       <c r="X454" s="25"/>
     </row>
-    <row r="455" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="25"/>
       <c r="B455" s="25"/>
       <c r="C455" s="25"/>
@@ -18647,7 +18644,7 @@
       <c r="W455" s="25"/>
       <c r="X455" s="25"/>
     </row>
-    <row r="456" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="25"/>
       <c r="B456" s="25"/>
       <c r="C456" s="25"/>
@@ -18673,7 +18670,7 @@
       <c r="W456" s="25"/>
       <c r="X456" s="25"/>
     </row>
-    <row r="457" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="25"/>
       <c r="B457" s="25"/>
       <c r="C457" s="25"/>
@@ -18699,7 +18696,7 @@
       <c r="W457" s="25"/>
       <c r="X457" s="25"/>
     </row>
-    <row r="458" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="25"/>
       <c r="B458" s="25"/>
       <c r="C458" s="25"/>
@@ -18725,7 +18722,7 @@
       <c r="W458" s="25"/>
       <c r="X458" s="25"/>
     </row>
-    <row r="459" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="25"/>
       <c r="B459" s="25"/>
       <c r="C459" s="25"/>
@@ -18751,7 +18748,7 @@
       <c r="W459" s="25"/>
       <c r="X459" s="25"/>
     </row>
-    <row r="460" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="25"/>
       <c r="B460" s="25"/>
       <c r="C460" s="25"/>
@@ -18777,7 +18774,7 @@
       <c r="W460" s="25"/>
       <c r="X460" s="25"/>
     </row>
-    <row r="461" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="25"/>
       <c r="B461" s="25"/>
       <c r="C461" s="25"/>
@@ -18803,7 +18800,7 @@
       <c r="W461" s="25"/>
       <c r="X461" s="25"/>
     </row>
-    <row r="462" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="25"/>
       <c r="B462" s="25"/>
       <c r="C462" s="25"/>
@@ -18829,7 +18826,7 @@
       <c r="W462" s="25"/>
       <c r="X462" s="25"/>
     </row>
-    <row r="463" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="25"/>
       <c r="B463" s="25"/>
       <c r="C463" s="25"/>
@@ -18855,7 +18852,7 @@
       <c r="W463" s="25"/>
       <c r="X463" s="25"/>
     </row>
-    <row r="464" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="25"/>
       <c r="B464" s="25"/>
       <c r="C464" s="25"/>
@@ -18881,7 +18878,7 @@
       <c r="W464" s="25"/>
       <c r="X464" s="25"/>
     </row>
-    <row r="465" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="25"/>
       <c r="B465" s="25"/>
       <c r="C465" s="25"/>
@@ -18907,7 +18904,7 @@
       <c r="W465" s="25"/>
       <c r="X465" s="25"/>
     </row>
-    <row r="466" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="25"/>
       <c r="B466" s="25"/>
       <c r="C466" s="25"/>
@@ -18933,7 +18930,7 @@
       <c r="W466" s="25"/>
       <c r="X466" s="25"/>
     </row>
-    <row r="467" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="25"/>
       <c r="B467" s="25"/>
       <c r="C467" s="25"/>
@@ -18959,7 +18956,7 @@
       <c r="W467" s="25"/>
       <c r="X467" s="25"/>
     </row>
-    <row r="468" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="25"/>
       <c r="B468" s="25"/>
       <c r="C468" s="25"/>
@@ -18985,7 +18982,7 @@
       <c r="W468" s="25"/>
       <c r="X468" s="25"/>
     </row>
-    <row r="469" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="25"/>
       <c r="B469" s="25"/>
       <c r="C469" s="25"/>
@@ -19011,7 +19008,7 @@
       <c r="W469" s="25"/>
       <c r="X469" s="25"/>
     </row>
-    <row r="470" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="25"/>
       <c r="B470" s="25"/>
       <c r="C470" s="25"/>
@@ -19037,7 +19034,7 @@
       <c r="W470" s="25"/>
       <c r="X470" s="25"/>
     </row>
-    <row r="471" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="25"/>
       <c r="B471" s="25"/>
       <c r="C471" s="25"/>
@@ -19063,7 +19060,7 @@
       <c r="W471" s="25"/>
       <c r="X471" s="25"/>
     </row>
-    <row r="472" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="25"/>
       <c r="B472" s="25"/>
       <c r="C472" s="25"/>
@@ -19089,7 +19086,7 @@
       <c r="W472" s="25"/>
       <c r="X472" s="25"/>
     </row>
-    <row r="473" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="25"/>
       <c r="B473" s="25"/>
       <c r="C473" s="25"/>
@@ -19115,7 +19112,7 @@
       <c r="W473" s="25"/>
       <c r="X473" s="25"/>
     </row>
-    <row r="474" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="25"/>
       <c r="B474" s="25"/>
       <c r="C474" s="25"/>
@@ -19141,7 +19138,7 @@
       <c r="W474" s="25"/>
       <c r="X474" s="25"/>
     </row>
-    <row r="475" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="25"/>
       <c r="B475" s="25"/>
       <c r="C475" s="25"/>
@@ -19167,7 +19164,7 @@
       <c r="W475" s="25"/>
       <c r="X475" s="25"/>
     </row>
-    <row r="476" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="25"/>
       <c r="B476" s="25"/>
       <c r="C476" s="25"/>
@@ -19193,7 +19190,7 @@
       <c r="W476" s="25"/>
       <c r="X476" s="25"/>
     </row>
-    <row r="477" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="25"/>
       <c r="B477" s="25"/>
       <c r="C477" s="25"/>
@@ -19219,7 +19216,7 @@
       <c r="W477" s="25"/>
       <c r="X477" s="25"/>
     </row>
-    <row r="478" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="25"/>
       <c r="B478" s="25"/>
       <c r="C478" s="25"/>
@@ -19245,7 +19242,7 @@
       <c r="W478" s="25"/>
       <c r="X478" s="25"/>
     </row>
-    <row r="479" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="25"/>
       <c r="B479" s="25"/>
       <c r="C479" s="25"/>
@@ -19271,7 +19268,7 @@
       <c r="W479" s="25"/>
       <c r="X479" s="25"/>
     </row>
-    <row r="480" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="25"/>
       <c r="B480" s="25"/>
       <c r="C480" s="25"/>
@@ -19297,7 +19294,7 @@
       <c r="W480" s="25"/>
       <c r="X480" s="25"/>
     </row>
-    <row r="481" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="25"/>
       <c r="B481" s="25"/>
       <c r="C481" s="25"/>
@@ -19323,7 +19320,7 @@
       <c r="W481" s="25"/>
       <c r="X481" s="25"/>
     </row>
-    <row r="482" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="25"/>
       <c r="B482" s="25"/>
       <c r="C482" s="25"/>
@@ -19349,7 +19346,7 @@
       <c r="W482" s="25"/>
       <c r="X482" s="25"/>
     </row>
-    <row r="483" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="25"/>
       <c r="B483" s="25"/>
       <c r="C483" s="25"/>
@@ -19375,7 +19372,7 @@
       <c r="W483" s="25"/>
       <c r="X483" s="25"/>
     </row>
-    <row r="484" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="25"/>
       <c r="B484" s="25"/>
       <c r="C484" s="25"/>
@@ -19401,7 +19398,7 @@
       <c r="W484" s="25"/>
       <c r="X484" s="25"/>
     </row>
-    <row r="485" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="25"/>
       <c r="B485" s="25"/>
       <c r="C485" s="25"/>
@@ -19427,7 +19424,7 @@
       <c r="W485" s="25"/>
       <c r="X485" s="25"/>
     </row>
-    <row r="486" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="25"/>
       <c r="B486" s="25"/>
       <c r="C486" s="25"/>
@@ -19453,7 +19450,7 @@
       <c r="W486" s="25"/>
       <c r="X486" s="25"/>
     </row>
-    <row r="487" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="25"/>
       <c r="B487" s="25"/>
       <c r="C487" s="25"/>
@@ -19479,7 +19476,7 @@
       <c r="W487" s="25"/>
       <c r="X487" s="25"/>
     </row>
-    <row r="488" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="25"/>
       <c r="B488" s="25"/>
       <c r="C488" s="25"/>
@@ -19505,7 +19502,7 @@
       <c r="W488" s="25"/>
       <c r="X488" s="25"/>
     </row>
-    <row r="489" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="25"/>
       <c r="B489" s="25"/>
       <c r="C489" s="25"/>
@@ -19531,7 +19528,7 @@
       <c r="W489" s="25"/>
       <c r="X489" s="25"/>
     </row>
-    <row r="490" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="25"/>
       <c r="B490" s="25"/>
       <c r="C490" s="25"/>
@@ -19557,7 +19554,7 @@
       <c r="W490" s="25"/>
       <c r="X490" s="25"/>
     </row>
-    <row r="491" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="25"/>
       <c r="B491" s="25"/>
       <c r="C491" s="25"/>
@@ -19583,7 +19580,7 @@
       <c r="W491" s="25"/>
       <c r="X491" s="25"/>
     </row>
-    <row r="492" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="25"/>
       <c r="B492" s="25"/>
       <c r="C492" s="25"/>
@@ -19609,7 +19606,7 @@
       <c r="W492" s="25"/>
       <c r="X492" s="25"/>
     </row>
-    <row r="493" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="25"/>
       <c r="B493" s="25"/>
       <c r="C493" s="25"/>
@@ -19635,7 +19632,7 @@
       <c r="W493" s="25"/>
       <c r="X493" s="25"/>
     </row>
-    <row r="494" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="25"/>
       <c r="B494" s="25"/>
       <c r="C494" s="25"/>
@@ -19661,7 +19658,7 @@
       <c r="W494" s="25"/>
       <c r="X494" s="25"/>
     </row>
-    <row r="495" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="25"/>
       <c r="B495" s="25"/>
       <c r="C495" s="25"/>
@@ -19687,7 +19684,7 @@
       <c r="W495" s="25"/>
       <c r="X495" s="25"/>
     </row>
-    <row r="496" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="25"/>
       <c r="B496" s="25"/>
       <c r="C496" s="25"/>
@@ -19713,7 +19710,7 @@
       <c r="W496" s="25"/>
       <c r="X496" s="25"/>
     </row>
-    <row r="497" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="25"/>
       <c r="B497" s="25"/>
       <c r="C497" s="25"/>
@@ -19739,7 +19736,7 @@
       <c r="W497" s="25"/>
       <c r="X497" s="25"/>
     </row>
-    <row r="498" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="25"/>
       <c r="B498" s="25"/>
       <c r="C498" s="25"/>
@@ -19765,7 +19762,7 @@
       <c r="W498" s="25"/>
       <c r="X498" s="25"/>
     </row>
-    <row r="499" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="25"/>
       <c r="B499" s="25"/>
       <c r="C499" s="25"/>
@@ -19791,7 +19788,7 @@
       <c r="W499" s="25"/>
       <c r="X499" s="25"/>
     </row>
-    <row r="500" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="25"/>
       <c r="B500" s="25"/>
       <c r="C500" s="25"/>
@@ -19817,7 +19814,7 @@
       <c r="W500" s="25"/>
       <c r="X500" s="25"/>
     </row>
-    <row r="501" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="25"/>
       <c r="B501" s="25"/>
       <c r="C501" s="25"/>
@@ -19843,7 +19840,7 @@
       <c r="W501" s="25"/>
       <c r="X501" s="25"/>
     </row>
-    <row r="502" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="25"/>
       <c r="B502" s="25"/>
       <c r="C502" s="25"/>
@@ -19869,7 +19866,7 @@
       <c r="W502" s="25"/>
       <c r="X502" s="25"/>
     </row>
-    <row r="503" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="25"/>
       <c r="B503" s="25"/>
       <c r="C503" s="25"/>
@@ -19895,7 +19892,7 @@
       <c r="W503" s="25"/>
       <c r="X503" s="25"/>
     </row>
-    <row r="504" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="25"/>
       <c r="B504" s="25"/>
       <c r="C504" s="25"/>
@@ -19921,7 +19918,7 @@
       <c r="W504" s="25"/>
       <c r="X504" s="25"/>
     </row>
-    <row r="505" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="25"/>
       <c r="B505" s="25"/>
       <c r="C505" s="25"/>
@@ -19947,7 +19944,7 @@
       <c r="W505" s="25"/>
       <c r="X505" s="25"/>
     </row>
-    <row r="506" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="25"/>
       <c r="B506" s="25"/>
       <c r="C506" s="25"/>
@@ -19973,7 +19970,7 @@
       <c r="W506" s="25"/>
       <c r="X506" s="25"/>
     </row>
-    <row r="507" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="25"/>
       <c r="B507" s="25"/>
       <c r="C507" s="25"/>
@@ -19999,7 +19996,7 @@
       <c r="W507" s="25"/>
       <c r="X507" s="25"/>
     </row>
-    <row r="508" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="25"/>
       <c r="B508" s="25"/>
       <c r="C508" s="25"/>
@@ -20025,7 +20022,7 @@
       <c r="W508" s="25"/>
       <c r="X508" s="25"/>
     </row>
-    <row r="509" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="25"/>
       <c r="B509" s="25"/>
       <c r="C509" s="25"/>
@@ -20051,7 +20048,7 @@
       <c r="W509" s="25"/>
       <c r="X509" s="25"/>
     </row>
-    <row r="510" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="25"/>
       <c r="B510" s="25"/>
       <c r="C510" s="25"/>
@@ -20077,7 +20074,7 @@
       <c r="W510" s="25"/>
       <c r="X510" s="25"/>
     </row>
-    <row r="511" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="25"/>
       <c r="B511" s="25"/>
       <c r="C511" s="25"/>
@@ -20103,7 +20100,7 @@
       <c r="W511" s="25"/>
       <c r="X511" s="25"/>
     </row>
-    <row r="512" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="25"/>
       <c r="B512" s="25"/>
       <c r="C512" s="25"/>
@@ -20129,7 +20126,7 @@
       <c r="W512" s="25"/>
       <c r="X512" s="25"/>
     </row>
-    <row r="513" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="25"/>
       <c r="B513" s="25"/>
       <c r="C513" s="25"/>
@@ -20155,7 +20152,7 @@
       <c r="W513" s="25"/>
       <c r="X513" s="25"/>
     </row>
-    <row r="514" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="25"/>
       <c r="B514" s="25"/>
       <c r="C514" s="25"/>
@@ -20181,7 +20178,7 @@
       <c r="W514" s="25"/>
       <c r="X514" s="25"/>
     </row>
-    <row r="515" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="25"/>
       <c r="B515" s="25"/>
       <c r="C515" s="25"/>
@@ -20207,7 +20204,7 @@
       <c r="W515" s="25"/>
       <c r="X515" s="25"/>
     </row>
-    <row r="516" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="25"/>
       <c r="B516" s="25"/>
       <c r="C516" s="25"/>
@@ -20233,7 +20230,7 @@
       <c r="W516" s="25"/>
       <c r="X516" s="25"/>
     </row>
-    <row r="517" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="25"/>
       <c r="B517" s="25"/>
       <c r="C517" s="25"/>
@@ -20259,7 +20256,7 @@
       <c r="W517" s="25"/>
       <c r="X517" s="25"/>
     </row>
-    <row r="518" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="25"/>
       <c r="B518" s="25"/>
       <c r="C518" s="25"/>
@@ -20285,7 +20282,7 @@
       <c r="W518" s="25"/>
       <c r="X518" s="25"/>
     </row>
-    <row r="519" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="25"/>
       <c r="B519" s="25"/>
       <c r="C519" s="25"/>
@@ -20311,7 +20308,7 @@
       <c r="W519" s="25"/>
       <c r="X519" s="25"/>
     </row>
-    <row r="520" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="25"/>
       <c r="B520" s="25"/>
       <c r="C520" s="25"/>
@@ -20337,7 +20334,7 @@
       <c r="W520" s="25"/>
       <c r="X520" s="25"/>
     </row>
-    <row r="521" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="25"/>
       <c r="B521" s="25"/>
       <c r="C521" s="25"/>
@@ -20363,7 +20360,7 @@
       <c r="W521" s="25"/>
       <c r="X521" s="25"/>
     </row>
-    <row r="522" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="25"/>
       <c r="B522" s="25"/>
       <c r="C522" s="25"/>
@@ -20389,7 +20386,7 @@
       <c r="W522" s="25"/>
       <c r="X522" s="25"/>
     </row>
-    <row r="523" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="25"/>
       <c r="B523" s="25"/>
       <c r="C523" s="25"/>
@@ -20415,7 +20412,7 @@
       <c r="W523" s="25"/>
       <c r="X523" s="25"/>
     </row>
-    <row r="524" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="25"/>
       <c r="B524" s="25"/>
       <c r="C524" s="25"/>
@@ -20441,7 +20438,7 @@
       <c r="W524" s="25"/>
       <c r="X524" s="25"/>
     </row>
-    <row r="525" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="25"/>
       <c r="B525" s="25"/>
       <c r="C525" s="25"/>
@@ -20467,7 +20464,7 @@
       <c r="W525" s="25"/>
       <c r="X525" s="25"/>
     </row>
-    <row r="526" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="25"/>
       <c r="B526" s="25"/>
       <c r="C526" s="25"/>
@@ -20493,7 +20490,7 @@
       <c r="W526" s="25"/>
       <c r="X526" s="25"/>
     </row>
-    <row r="527" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="25"/>
       <c r="B527" s="25"/>
       <c r="C527" s="25"/>
@@ -20519,7 +20516,7 @@
       <c r="W527" s="25"/>
       <c r="X527" s="25"/>
     </row>
-    <row r="528" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="25"/>
       <c r="B528" s="25"/>
       <c r="C528" s="25"/>
@@ -20545,7 +20542,7 @@
       <c r="W528" s="25"/>
       <c r="X528" s="25"/>
     </row>
-    <row r="529" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="25"/>
       <c r="B529" s="25"/>
       <c r="C529" s="25"/>
@@ -20571,7 +20568,7 @@
       <c r="W529" s="25"/>
       <c r="X529" s="25"/>
     </row>
-    <row r="530" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="25"/>
       <c r="B530" s="25"/>
       <c r="C530" s="25"/>
@@ -20597,7 +20594,7 @@
       <c r="W530" s="25"/>
       <c r="X530" s="25"/>
     </row>
-    <row r="531" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="25"/>
       <c r="B531" s="25"/>
       <c r="C531" s="25"/>
@@ -20623,7 +20620,7 @@
       <c r="W531" s="25"/>
       <c r="X531" s="25"/>
     </row>
-    <row r="532" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="25"/>
       <c r="B532" s="25"/>
       <c r="C532" s="25"/>
@@ -20649,7 +20646,7 @@
       <c r="W532" s="25"/>
       <c r="X532" s="25"/>
     </row>
-    <row r="533" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="25"/>
       <c r="B533" s="25"/>
       <c r="C533" s="25"/>
@@ -20675,7 +20672,7 @@
       <c r="W533" s="25"/>
       <c r="X533" s="25"/>
     </row>
-    <row r="534" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="25"/>
       <c r="B534" s="25"/>
       <c r="C534" s="25"/>
@@ -20701,7 +20698,7 @@
       <c r="W534" s="25"/>
       <c r="X534" s="25"/>
     </row>
-    <row r="535" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="25"/>
       <c r="B535" s="25"/>
       <c r="C535" s="25"/>
@@ -20727,7 +20724,7 @@
       <c r="W535" s="25"/>
       <c r="X535" s="25"/>
     </row>
-    <row r="536" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="25"/>
       <c r="B536" s="25"/>
       <c r="C536" s="25"/>
@@ -20753,7 +20750,7 @@
       <c r="W536" s="25"/>
       <c r="X536" s="25"/>
     </row>
-    <row r="537" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="25"/>
       <c r="B537" s="25"/>
       <c r="C537" s="25"/>
@@ -20779,7 +20776,7 @@
       <c r="W537" s="25"/>
       <c r="X537" s="25"/>
     </row>
-    <row r="538" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="25"/>
       <c r="B538" s="25"/>
       <c r="C538" s="25"/>
@@ -20805,7 +20802,7 @@
       <c r="W538" s="25"/>
       <c r="X538" s="25"/>
     </row>
-    <row r="539" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="25"/>
       <c r="B539" s="25"/>
       <c r="C539" s="25"/>
@@ -20831,7 +20828,7 @@
       <c r="W539" s="25"/>
       <c r="X539" s="25"/>
     </row>
-    <row r="540" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="25"/>
       <c r="B540" s="25"/>
       <c r="C540" s="25"/>
@@ -20857,7 +20854,7 @@
       <c r="W540" s="25"/>
       <c r="X540" s="25"/>
     </row>
-    <row r="541" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="25"/>
       <c r="B541" s="25"/>
       <c r="C541" s="25"/>
@@ -20883,7 +20880,7 @@
       <c r="W541" s="25"/>
       <c r="X541" s="25"/>
     </row>
-    <row r="542" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="25"/>
       <c r="B542" s="25"/>
       <c r="C542" s="25"/>
@@ -20909,7 +20906,7 @@
       <c r="W542" s="25"/>
       <c r="X542" s="25"/>
     </row>
-    <row r="543" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="25"/>
       <c r="B543" s="25"/>
       <c r="C543" s="25"/>
@@ -20935,7 +20932,7 @@
       <c r="W543" s="25"/>
       <c r="X543" s="25"/>
     </row>
-    <row r="544" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="25"/>
       <c r="B544" s="25"/>
       <c r="C544" s="25"/>
@@ -20961,7 +20958,7 @@
       <c r="W544" s="25"/>
       <c r="X544" s="25"/>
     </row>
-    <row r="545" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="25"/>
       <c r="B545" s="25"/>
       <c r="C545" s="25"/>
@@ -20987,7 +20984,7 @@
       <c r="W545" s="25"/>
       <c r="X545" s="25"/>
     </row>
-    <row r="546" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="25"/>
       <c r="B546" s="25"/>
       <c r="C546" s="25"/>
@@ -21013,7 +21010,7 @@
       <c r="W546" s="25"/>
       <c r="X546" s="25"/>
     </row>
-    <row r="547" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="25"/>
       <c r="B547" s="25"/>
       <c r="C547" s="25"/>
@@ -21039,7 +21036,7 @@
       <c r="W547" s="25"/>
       <c r="X547" s="25"/>
     </row>
-    <row r="548" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="25"/>
       <c r="B548" s="25"/>
       <c r="C548" s="25"/>
@@ -21065,7 +21062,7 @@
       <c r="W548" s="25"/>
       <c r="X548" s="25"/>
     </row>
-    <row r="549" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="25"/>
       <c r="B549" s="25"/>
       <c r="C549" s="25"/>
@@ -21091,7 +21088,7 @@
       <c r="W549" s="25"/>
       <c r="X549" s="25"/>
     </row>
-    <row r="550" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="25"/>
       <c r="B550" s="25"/>
       <c r="C550" s="25"/>
@@ -21117,7 +21114,7 @@
       <c r="W550" s="25"/>
       <c r="X550" s="25"/>
     </row>
-    <row r="551" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="25"/>
       <c r="B551" s="25"/>
       <c r="C551" s="25"/>
@@ -21143,7 +21140,7 @@
       <c r="W551" s="25"/>
       <c r="X551" s="25"/>
     </row>
-    <row r="552" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="25"/>
       <c r="B552" s="25"/>
       <c r="C552" s="25"/>
@@ -21169,7 +21166,7 @@
       <c r="W552" s="25"/>
       <c r="X552" s="25"/>
     </row>
-    <row r="553" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="25"/>
       <c r="B553" s="25"/>
       <c r="C553" s="25"/>
@@ -21195,7 +21192,7 @@
       <c r="W553" s="25"/>
       <c r="X553" s="25"/>
     </row>
-    <row r="554" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="25"/>
       <c r="B554" s="25"/>
       <c r="C554" s="25"/>
@@ -21221,7 +21218,7 @@
       <c r="W554" s="25"/>
       <c r="X554" s="25"/>
     </row>
-    <row r="555" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="25"/>
       <c r="B555" s="25"/>
       <c r="C555" s="25"/>
@@ -21247,7 +21244,7 @@
       <c r="W555" s="25"/>
       <c r="X555" s="25"/>
     </row>
-    <row r="556" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="25"/>
       <c r="B556" s="25"/>
       <c r="C556" s="25"/>
@@ -21273,7 +21270,7 @@
       <c r="W556" s="25"/>
       <c r="X556" s="25"/>
     </row>
-    <row r="557" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="25"/>
       <c r="B557" s="25"/>
       <c r="C557" s="25"/>
@@ -21299,7 +21296,7 @@
       <c r="W557" s="25"/>
       <c r="X557" s="25"/>
     </row>
-    <row r="558" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="25"/>
       <c r="B558" s="25"/>
       <c r="C558" s="25"/>
@@ -21325,7 +21322,7 @@
       <c r="W558" s="25"/>
       <c r="X558" s="25"/>
     </row>
-    <row r="559" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="25"/>
       <c r="B559" s="25"/>
       <c r="C559" s="25"/>
@@ -21351,7 +21348,7 @@
       <c r="W559" s="25"/>
       <c r="X559" s="25"/>
     </row>
-    <row r="560" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="25"/>
       <c r="B560" s="25"/>
       <c r="C560" s="25"/>
@@ -21377,7 +21374,7 @@
       <c r="W560" s="25"/>
       <c r="X560" s="25"/>
     </row>
-    <row r="561" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="25"/>
       <c r="B561" s="25"/>
       <c r="C561" s="25"/>
@@ -21403,7 +21400,7 @@
       <c r="W561" s="25"/>
       <c r="X561" s="25"/>
     </row>
-    <row r="562" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="25"/>
       <c r="B562" s="25"/>
       <c r="C562" s="25"/>
@@ -21429,7 +21426,7 @@
       <c r="W562" s="25"/>
       <c r="X562" s="25"/>
     </row>
-    <row r="563" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="25"/>
       <c r="B563" s="25"/>
       <c r="C563" s="25"/>
@@ -21455,7 +21452,7 @@
       <c r="W563" s="25"/>
       <c r="X563" s="25"/>
     </row>
-    <row r="564" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="25"/>
       <c r="B564" s="25"/>
       <c r="C564" s="25"/>
@@ -21481,7 +21478,7 @@
       <c r="W564" s="25"/>
       <c r="X564" s="25"/>
     </row>
-    <row r="565" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="25"/>
       <c r="B565" s="25"/>
       <c r="C565" s="25"/>
@@ -21507,7 +21504,7 @@
       <c r="W565" s="25"/>
       <c r="X565" s="25"/>
     </row>
-    <row r="566" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="25"/>
       <c r="B566" s="25"/>
       <c r="C566" s="25"/>
@@ -21533,7 +21530,7 @@
       <c r="W566" s="25"/>
       <c r="X566" s="25"/>
     </row>
-    <row r="567" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="25"/>
       <c r="B567" s="25"/>
       <c r="C567" s="25"/>
@@ -21559,7 +21556,7 @@
       <c r="W567" s="25"/>
       <c r="X567" s="25"/>
     </row>
-    <row r="568" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="25"/>
       <c r="B568" s="25"/>
       <c r="C568" s="25"/>
@@ -21585,7 +21582,7 @@
       <c r="W568" s="25"/>
       <c r="X568" s="25"/>
     </row>
-    <row r="569" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="25"/>
       <c r="B569" s="25"/>
       <c r="C569" s="25"/>
@@ -21611,7 +21608,7 @@
       <c r="W569" s="25"/>
       <c r="X569" s="25"/>
     </row>
-    <row r="570" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="25"/>
       <c r="B570" s="25"/>
       <c r="C570" s="25"/>
@@ -21637,7 +21634,7 @@
       <c r="W570" s="25"/>
       <c r="X570" s="25"/>
     </row>
-    <row r="571" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="25"/>
       <c r="B571" s="25"/>
       <c r="C571" s="25"/>
@@ -21663,7 +21660,7 @@
       <c r="W571" s="25"/>
       <c r="X571" s="25"/>
     </row>
-    <row r="572" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="25"/>
       <c r="B572" s="25"/>
       <c r="C572" s="25"/>
@@ -21689,7 +21686,7 @@
       <c r="W572" s="25"/>
       <c r="X572" s="25"/>
     </row>
-    <row r="573" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="25"/>
       <c r="B573" s="25"/>
       <c r="C573" s="25"/>
@@ -21715,7 +21712,7 @@
       <c r="W573" s="25"/>
       <c r="X573" s="25"/>
     </row>
-    <row r="574" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="25"/>
       <c r="B574" s="25"/>
       <c r="C574" s="25"/>
@@ -21741,7 +21738,7 @@
       <c r="W574" s="25"/>
       <c r="X574" s="25"/>
     </row>
-    <row r="575" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="25"/>
       <c r="B575" s="25"/>
       <c r="C575" s="25"/>
@@ -21767,7 +21764,7 @@
       <c r="W575" s="25"/>
       <c r="X575" s="25"/>
     </row>
-    <row r="576" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="25"/>
       <c r="B576" s="25"/>
       <c r="C576" s="25"/>
@@ -21793,7 +21790,7 @@
       <c r="W576" s="25"/>
       <c r="X576" s="25"/>
     </row>
-    <row r="577" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="25"/>
       <c r="B577" s="25"/>
       <c r="C577" s="25"/>
@@ -21819,7 +21816,7 @@
       <c r="W577" s="25"/>
       <c r="X577" s="25"/>
     </row>
-    <row r="578" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="25"/>
       <c r="B578" s="25"/>
       <c r="C578" s="25"/>
@@ -21845,7 +21842,7 @@
       <c r="W578" s="25"/>
       <c r="X578" s="25"/>
     </row>
-    <row r="579" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="25"/>
       <c r="B579" s="25"/>
       <c r="C579" s="25"/>
@@ -21871,7 +21868,7 @@
       <c r="W579" s="25"/>
       <c r="X579" s="25"/>
     </row>
-    <row r="580" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="25"/>
       <c r="B580" s="25"/>
       <c r="C580" s="25"/>
@@ -21897,7 +21894,7 @@
       <c r="W580" s="25"/>
       <c r="X580" s="25"/>
     </row>
-    <row r="581" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="25"/>
       <c r="B581" s="25"/>
       <c r="C581" s="25"/>
@@ -21923,7 +21920,7 @@
       <c r="W581" s="25"/>
       <c r="X581" s="25"/>
     </row>
-    <row r="582" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="25"/>
       <c r="B582" s="25"/>
       <c r="C582" s="25"/>
@@ -21949,7 +21946,7 @@
       <c r="W582" s="25"/>
       <c r="X582" s="25"/>
     </row>
-    <row r="583" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="25"/>
       <c r="B583" s="25"/>
       <c r="C583" s="25"/>
@@ -21975,7 +21972,7 @@
       <c r="W583" s="25"/>
       <c r="X583" s="25"/>
     </row>
-    <row r="584" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="25"/>
       <c r="B584" s="25"/>
       <c r="C584" s="25"/>
@@ -22001,7 +21998,7 @@
       <c r="W584" s="25"/>
       <c r="X584" s="25"/>
     </row>
-    <row r="585" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="25"/>
       <c r="B585" s="25"/>
       <c r="C585" s="25"/>
@@ -22027,7 +22024,7 @@
       <c r="W585" s="25"/>
       <c r="X585" s="25"/>
     </row>
-    <row r="586" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="25"/>
       <c r="B586" s="25"/>
       <c r="C586" s="25"/>
@@ -22053,7 +22050,7 @@
       <c r="W586" s="25"/>
       <c r="X586" s="25"/>
     </row>
-    <row r="587" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="25"/>
       <c r="B587" s="25"/>
       <c r="C587" s="25"/>
@@ -22079,7 +22076,7 @@
       <c r="W587" s="25"/>
       <c r="X587" s="25"/>
     </row>
-    <row r="588" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="25"/>
       <c r="B588" s="25"/>
       <c r="C588" s="25"/>
@@ -22105,7 +22102,7 @@
       <c r="W588" s="25"/>
       <c r="X588" s="25"/>
     </row>
-    <row r="589" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="25"/>
       <c r="B589" s="25"/>
       <c r="C589" s="25"/>
@@ -22131,7 +22128,7 @@
       <c r="W589" s="25"/>
       <c r="X589" s="25"/>
     </row>
-    <row r="590" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="25"/>
       <c r="B590" s="25"/>
       <c r="C590" s="25"/>
@@ -22157,7 +22154,7 @@
       <c r="W590" s="25"/>
       <c r="X590" s="25"/>
     </row>
-    <row r="591" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="25"/>
       <c r="B591" s="25"/>
       <c r="C591" s="25"/>
@@ -22183,7 +22180,7 @@
       <c r="W591" s="25"/>
       <c r="X591" s="25"/>
     </row>
-    <row r="592" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="25"/>
       <c r="B592" s="25"/>
       <c r="C592" s="25"/>
@@ -22209,7 +22206,7 @@
       <c r="W592" s="25"/>
       <c r="X592" s="25"/>
     </row>
-    <row r="593" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="25"/>
       <c r="B593" s="25"/>
       <c r="C593" s="25"/>
@@ -22235,7 +22232,7 @@
       <c r="W593" s="25"/>
       <c r="X593" s="25"/>
     </row>
-    <row r="594" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="25"/>
       <c r="B594" s="25"/>
       <c r="C594" s="25"/>
@@ -22261,7 +22258,7 @@
       <c r="W594" s="25"/>
       <c r="X594" s="25"/>
     </row>
-    <row r="595" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="25"/>
       <c r="B595" s="25"/>
       <c r="C595" s="25"/>
@@ -22287,7 +22284,7 @@
       <c r="W595" s="25"/>
       <c r="X595" s="25"/>
     </row>
-    <row r="596" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="25"/>
       <c r="B596" s="25"/>
       <c r="C596" s="25"/>
@@ -22313,7 +22310,7 @@
       <c r="W596" s="25"/>
       <c r="X596" s="25"/>
     </row>
-    <row r="597" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="25"/>
       <c r="B597" s="25"/>
       <c r="C597" s="25"/>
@@ -22339,7 +22336,7 @@
       <c r="W597" s="25"/>
       <c r="X597" s="25"/>
     </row>
-    <row r="598" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="25"/>
       <c r="B598" s="25"/>
       <c r="C598" s="25"/>
@@ -22365,7 +22362,7 @@
       <c r="W598" s="25"/>
       <c r="X598" s="25"/>
     </row>
-    <row r="599" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="25"/>
       <c r="B599" s="25"/>
       <c r="C599" s="25"/>
@@ -22391,7 +22388,7 @@
       <c r="W599" s="25"/>
       <c r="X599" s="25"/>
     </row>
-    <row r="600" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="25"/>
       <c r="B600" s="25"/>
       <c r="C600" s="25"/>
@@ -22417,7 +22414,7 @@
       <c r="W600" s="25"/>
       <c r="X600" s="25"/>
     </row>
-    <row r="601" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="25"/>
       <c r="B601" s="25"/>
       <c r="C601" s="25"/>
@@ -22443,7 +22440,7 @@
       <c r="W601" s="25"/>
       <c r="X601" s="25"/>
     </row>
-    <row r="602" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="25"/>
       <c r="B602" s="25"/>
       <c r="C602" s="25"/>
@@ -22469,7 +22466,7 @@
       <c r="W602" s="25"/>
       <c r="X602" s="25"/>
     </row>
-    <row r="603" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="25"/>
       <c r="B603" s="25"/>
       <c r="C603" s="25"/>
@@ -22495,7 +22492,7 @@
       <c r="W603" s="25"/>
       <c r="X603" s="25"/>
     </row>
-    <row r="604" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="25"/>
       <c r="B604" s="25"/>
       <c r="C604" s="25"/>
@@ -22521,7 +22518,7 @@
       <c r="W604" s="25"/>
       <c r="X604" s="25"/>
     </row>
-    <row r="605" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="25"/>
       <c r="B605" s="25"/>
       <c r="C605" s="25"/>
@@ -22547,7 +22544,7 @@
       <c r="W605" s="25"/>
       <c r="X605" s="25"/>
     </row>
-    <row r="606" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="25"/>
       <c r="B606" s="25"/>
       <c r="C606" s="25"/>
@@ -22573,7 +22570,7 @@
       <c r="W606" s="25"/>
       <c r="X606" s="25"/>
     </row>
-    <row r="607" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="25"/>
       <c r="B607" s="25"/>
       <c r="C607" s="25"/>
@@ -22599,7 +22596,7 @@
       <c r="W607" s="25"/>
       <c r="X607" s="25"/>
     </row>
-    <row r="608" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="25"/>
       <c r="B608" s="25"/>
       <c r="C608" s="25"/>
@@ -22625,7 +22622,7 @@
       <c r="W608" s="25"/>
       <c r="X608" s="25"/>
     </row>
-    <row r="609" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="25"/>
       <c r="B609" s="25"/>
       <c r="C609" s="25"/>
@@ -22651,7 +22648,7 @@
       <c r="W609" s="25"/>
       <c r="X609" s="25"/>
     </row>
-    <row r="610" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="25"/>
       <c r="B610" s="25"/>
       <c r="C610" s="25"/>
@@ -22677,7 +22674,7 @@
       <c r="W610" s="25"/>
       <c r="X610" s="25"/>
     </row>
-    <row r="611" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="25"/>
       <c r="B611" s="25"/>
       <c r="C611" s="25"/>
@@ -22703,7 +22700,7 @@
       <c r="W611" s="25"/>
       <c r="X611" s="25"/>
     </row>
-    <row r="612" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="25"/>
       <c r="B612" s="25"/>
       <c r="C612" s="25"/>
@@ -22729,7 +22726,7 @@
       <c r="W612" s="25"/>
       <c r="X612" s="25"/>
     </row>
-    <row r="613" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="25"/>
       <c r="B613" s="25"/>
       <c r="C613" s="25"/>
@@ -22755,7 +22752,7 @@
       <c r="W613" s="25"/>
       <c r="X613" s="25"/>
     </row>
-    <row r="614" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="25"/>
       <c r="B614" s="25"/>
       <c r="C614" s="25"/>
@@ -22781,7 +22778,7 @@
       <c r="W614" s="25"/>
       <c r="X614" s="25"/>
     </row>
-    <row r="615" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="25"/>
       <c r="B615" s="25"/>
       <c r="C615" s="25"/>
@@ -22807,7 +22804,7 @@
       <c r="W615" s="25"/>
       <c r="X615" s="25"/>
     </row>
-    <row r="616" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="25"/>
       <c r="B616" s="25"/>
       <c r="C616" s="25"/>
@@ -22833,7 +22830,7 @@
       <c r="W616" s="25"/>
       <c r="X616" s="25"/>
     </row>
-    <row r="617" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="25"/>
       <c r="B617" s="25"/>
       <c r="C617" s="25"/>
@@ -22859,7 +22856,7 @@
       <c r="W617" s="25"/>
       <c r="X617" s="25"/>
     </row>
-    <row r="618" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="25"/>
       <c r="B618" s="25"/>
       <c r="C618" s="25"/>
@@ -22885,7 +22882,7 @@
       <c r="W618" s="25"/>
       <c r="X618" s="25"/>
     </row>
-    <row r="619" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="25"/>
       <c r="B619" s="25"/>
       <c r="C619" s="25"/>
@@ -22911,7 +22908,7 @@
       <c r="W619" s="25"/>
       <c r="X619" s="25"/>
     </row>
-    <row r="620" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="25"/>
       <c r="B620" s="25"/>
       <c r="C620" s="25"/>
@@ -22937,7 +22934,7 @@
       <c r="W620" s="25"/>
       <c r="X620" s="25"/>
     </row>
-    <row r="621" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="25"/>
       <c r="B621" s="25"/>
       <c r="C621" s="25"/>
@@ -22963,7 +22960,7 @@
       <c r="W621" s="25"/>
       <c r="X621" s="25"/>
     </row>
-    <row r="622" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="25"/>
       <c r="B622" s="25"/>
       <c r="C622" s="25"/>
@@ -22989,7 +22986,7 @@
       <c r="W622" s="25"/>
       <c r="X622" s="25"/>
     </row>
-    <row r="623" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="25"/>
       <c r="B623" s="25"/>
       <c r="C623" s="25"/>
@@ -23015,7 +23012,7 @@
       <c r="W623" s="25"/>
       <c r="X623" s="25"/>
     </row>
-    <row r="624" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="25"/>
       <c r="B624" s="25"/>
       <c r="C624" s="25"/>
@@ -23041,7 +23038,7 @@
       <c r="W624" s="25"/>
       <c r="X624" s="25"/>
     </row>
-    <row r="625" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="25"/>
       <c r="B625" s="25"/>
       <c r="C625" s="25"/>
@@ -23067,7 +23064,7 @@
       <c r="W625" s="25"/>
       <c r="X625" s="25"/>
     </row>
-    <row r="626" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="25"/>
       <c r="B626" s="25"/>
       <c r="C626" s="25"/>
@@ -23093,7 +23090,7 @@
       <c r="W626" s="25"/>
       <c r="X626" s="25"/>
     </row>
-    <row r="627" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="25"/>
       <c r="B627" s="25"/>
       <c r="C627" s="25"/>
@@ -23119,7 +23116,7 @@
       <c r="W627" s="25"/>
       <c r="X627" s="25"/>
     </row>
-    <row r="628" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="25"/>
       <c r="B628" s="25"/>
       <c r="C628" s="25"/>
@@ -23145,7 +23142,7 @@
       <c r="W628" s="25"/>
       <c r="X628" s="25"/>
     </row>
-    <row r="629" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="25"/>
       <c r="B629" s="25"/>
       <c r="C629" s="25"/>
@@ -23171,7 +23168,7 @@
       <c r="W629" s="25"/>
       <c r="X629" s="25"/>
     </row>
-    <row r="630" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="25"/>
       <c r="B630" s="25"/>
       <c r="C630" s="25"/>
@@ -23197,7 +23194,7 @@
       <c r="W630" s="25"/>
       <c r="X630" s="25"/>
     </row>
-    <row r="631" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="25"/>
       <c r="B631" s="25"/>
       <c r="C631" s="25"/>
@@ -23223,7 +23220,7 @@
       <c r="W631" s="25"/>
       <c r="X631" s="25"/>
     </row>
-    <row r="632" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="25"/>
       <c r="B632" s="25"/>
       <c r="C632" s="25"/>
@@ -23249,7 +23246,7 @@
       <c r="W632" s="25"/>
       <c r="X632" s="25"/>
     </row>
-    <row r="633" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="25"/>
       <c r="B633" s="25"/>
       <c r="C633" s="25"/>
@@ -23275,7 +23272,7 @@
       <c r="W633" s="25"/>
       <c r="X633" s="25"/>
     </row>
-    <row r="634" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="25"/>
       <c r="B634" s="25"/>
       <c r="C634" s="25"/>
@@ -23301,7 +23298,7 @@
       <c r="W634" s="25"/>
       <c r="X634" s="25"/>
     </row>
-    <row r="635" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="25"/>
       <c r="B635" s="25"/>
       <c r="C635" s="25"/>
@@ -23327,7 +23324,7 @@
       <c r="W635" s="25"/>
       <c r="X635" s="25"/>
     </row>
-    <row r="636" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="25"/>
       <c r="B636" s="25"/>
       <c r="C636" s="25"/>
@@ -23353,7 +23350,7 @@
       <c r="W636" s="25"/>
       <c r="X636" s="25"/>
     </row>
-    <row r="637" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="25"/>
       <c r="B637" s="25"/>
       <c r="C637" s="25"/>
@@ -23379,7 +23376,7 @@
       <c r="W637" s="25"/>
       <c r="X637" s="25"/>
     </row>
-    <row r="638" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="25"/>
       <c r="B638" s="25"/>
       <c r="C638" s="25"/>
@@ -23405,7 +23402,7 @@
       <c r="W638" s="25"/>
       <c r="X638" s="25"/>
     </row>
-    <row r="639" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="25"/>
       <c r="B639" s="25"/>
       <c r="C639" s="25"/>
@@ -23431,7 +23428,7 @@
       <c r="W639" s="25"/>
       <c r="X639" s="25"/>
     </row>
-    <row r="640" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="25"/>
       <c r="B640" s="25"/>
       <c r="C640" s="25"/>
@@ -23457,7 +23454,7 @@
       <c r="W640" s="25"/>
       <c r="X640" s="25"/>
     </row>
-    <row r="641" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="25"/>
       <c r="B641" s="25"/>
       <c r="C641" s="25"/>
@@ -23483,7 +23480,7 @@
       <c r="W641" s="25"/>
       <c r="X641" s="25"/>
     </row>
-    <row r="642" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="25"/>
       <c r="B642" s="25"/>
       <c r="C642" s="25"/>
@@ -23509,7 +23506,7 @@
       <c r="W642" s="25"/>
       <c r="X642" s="25"/>
     </row>
-    <row r="643" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="25"/>
       <c r="B643" s="25"/>
       <c r="C643" s="25"/>
@@ -23535,7 +23532,7 @@
       <c r="W643" s="25"/>
       <c r="X643" s="25"/>
     </row>
-    <row r="644" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="25"/>
       <c r="B644" s="25"/>
       <c r="C644" s="25"/>
@@ -23561,7 +23558,7 @@
       <c r="W644" s="25"/>
       <c r="X644" s="25"/>
     </row>
-    <row r="645" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="25"/>
       <c r="B645" s="25"/>
       <c r="C645" s="25"/>
@@ -23587,7 +23584,7 @@
       <c r="W645" s="25"/>
       <c r="X645" s="25"/>
     </row>
-    <row r="646" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="25"/>
       <c r="B646" s="25"/>
       <c r="C646" s="25"/>
@@ -23613,7 +23610,7 @@
       <c r="W646" s="25"/>
       <c r="X646" s="25"/>
     </row>
-    <row r="647" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="25"/>
       <c r="B647" s="25"/>
       <c r="C647" s="25"/>
@@ -23639,7 +23636,7 @@
       <c r="W647" s="25"/>
       <c r="X647" s="25"/>
     </row>
-    <row r="648" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="25"/>
       <c r="B648" s="25"/>
       <c r="C648" s="25"/>
@@ -23665,7 +23662,7 @@
       <c r="W648" s="25"/>
       <c r="X648" s="25"/>
     </row>
-    <row r="649" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="25"/>
       <c r="B649" s="25"/>
       <c r="C649" s="25"/>
@@ -23691,7 +23688,7 @@
       <c r="W649" s="25"/>
       <c r="X649" s="25"/>
     </row>
-    <row r="650" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="25"/>
       <c r="B650" s="25"/>
       <c r="C650" s="25"/>
@@ -23717,7 +23714,7 @@
       <c r="W650" s="25"/>
       <c r="X650" s="25"/>
     </row>
-    <row r="651" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="25"/>
       <c r="B651" s="25"/>
       <c r="C651" s="25"/>
@@ -23743,7 +23740,7 @@
       <c r="W651" s="25"/>
       <c r="X651" s="25"/>
     </row>
-    <row r="652" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="25"/>
       <c r="B652" s="25"/>
       <c r="C652" s="25"/>
@@ -23769,7 +23766,7 @@
       <c r="W652" s="25"/>
       <c r="X652" s="25"/>
     </row>
-    <row r="653" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="25"/>
       <c r="B653" s="25"/>
       <c r="C653" s="25"/>
@@ -23795,7 +23792,7 @@
       <c r="W653" s="25"/>
       <c r="X653" s="25"/>
     </row>
-    <row r="654" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="25"/>
       <c r="B654" s="25"/>
       <c r="C654" s="25"/>
@@ -23821,7 +23818,7 @@
       <c r="W654" s="25"/>
       <c r="X654" s="25"/>
     </row>
-    <row r="655" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="25"/>
       <c r="B655" s="25"/>
       <c r="C655" s="25"/>
@@ -23847,7 +23844,7 @@
       <c r="W655" s="25"/>
       <c r="X655" s="25"/>
     </row>
-    <row r="656" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="25"/>
       <c r="B656" s="25"/>
       <c r="C656" s="25"/>
@@ -23873,7 +23870,7 @@
       <c r="W656" s="25"/>
       <c r="X656" s="25"/>
     </row>
-    <row r="657" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="25"/>
       <c r="B657" s="25"/>
       <c r="C657" s="25"/>
@@ -23899,7 +23896,7 @@
       <c r="W657" s="25"/>
       <c r="X657" s="25"/>
     </row>
-    <row r="658" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="25"/>
       <c r="B658" s="25"/>
       <c r="C658" s="25"/>
@@ -23925,7 +23922,7 @@
       <c r="W658" s="25"/>
       <c r="X658" s="25"/>
     </row>
-    <row r="659" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="25"/>
       <c r="B659" s="25"/>
       <c r="C659" s="25"/>
@@ -23951,7 +23948,7 @@
       <c r="W659" s="25"/>
       <c r="X659" s="25"/>
     </row>
-    <row r="660" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="25"/>
       <c r="B660" s="25"/>
       <c r="C660" s="25"/>
@@ -23977,7 +23974,7 @@
       <c r="W660" s="25"/>
       <c r="X660" s="25"/>
     </row>
-    <row r="661" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="25"/>
       <c r="B661" s="25"/>
       <c r="C661" s="25"/>
@@ -24003,7 +24000,7 @@
       <c r="W661" s="25"/>
       <c r="X661" s="25"/>
     </row>
-    <row r="662" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="25"/>
       <c r="B662" s="25"/>
       <c r="C662" s="25"/>
@@ -24029,7 +24026,7 @@
       <c r="W662" s="25"/>
       <c r="X662" s="25"/>
     </row>
-    <row r="663" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="25"/>
       <c r="B663" s="25"/>
       <c r="C663" s="25"/>
@@ -24055,7 +24052,7 @@
       <c r="W663" s="25"/>
       <c r="X663" s="25"/>
     </row>
-    <row r="664" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="25"/>
       <c r="B664" s="25"/>
       <c r="C664" s="25"/>
@@ -24081,7 +24078,7 @@
       <c r="W664" s="25"/>
       <c r="X664" s="25"/>
     </row>
-    <row r="665" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="25"/>
       <c r="B665" s="25"/>
       <c r="C665" s="25"/>
@@ -24107,7 +24104,7 @@
       <c r="W665" s="25"/>
       <c r="X665" s="25"/>
     </row>
-    <row r="666" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="25"/>
       <c r="B666" s="25"/>
       <c r="C666" s="25"/>
@@ -24133,7 +24130,7 @@
       <c r="W666" s="25"/>
       <c r="X666" s="25"/>
     </row>
-    <row r="667" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="25"/>
       <c r="B667" s="25"/>
       <c r="C667" s="25"/>
@@ -24159,7 +24156,7 @@
       <c r="W667" s="25"/>
       <c r="X667" s="25"/>
     </row>
-    <row r="668" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="25"/>
       <c r="B668" s="25"/>
       <c r="C668" s="25"/>
@@ -24185,7 +24182,7 @@
       <c r="W668" s="25"/>
       <c r="X668" s="25"/>
     </row>
-    <row r="669" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="25"/>
       <c r="B669" s="25"/>
       <c r="C669" s="25"/>
@@ -24211,7 +24208,7 @@
       <c r="W669" s="25"/>
       <c r="X669" s="25"/>
     </row>
-    <row r="670" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="25"/>
       <c r="B670" s="25"/>
       <c r="C670" s="25"/>
@@ -24237,7 +24234,7 @@
       <c r="W670" s="25"/>
       <c r="X670" s="25"/>
     </row>
-    <row r="671" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="25"/>
       <c r="B671" s="25"/>
       <c r="C671" s="25"/>
@@ -24263,7 +24260,7 @@
       <c r="W671" s="25"/>
       <c r="X671" s="25"/>
     </row>
-    <row r="672" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="25"/>
       <c r="B672" s="25"/>
       <c r="C672" s="25"/>
@@ -24289,7 +24286,7 @@
       <c r="W672" s="25"/>
       <c r="X672" s="25"/>
     </row>
-    <row r="673" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="25"/>
       <c r="B673" s="25"/>
       <c r="C673" s="25"/>
@@ -24315,7 +24312,7 @@
       <c r="W673" s="25"/>
       <c r="X673" s="25"/>
     </row>
-    <row r="674" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="25"/>
       <c r="B674" s="25"/>
       <c r="C674" s="25"/>
@@ -24341,7 +24338,7 @@
       <c r="W674" s="25"/>
       <c r="X674" s="25"/>
     </row>
-    <row r="675" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="25"/>
       <c r="B675" s="25"/>
       <c r="C675" s="25"/>
@@ -24367,7 +24364,7 @@
       <c r="W675" s="25"/>
       <c r="X675" s="25"/>
     </row>
-    <row r="676" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="25"/>
       <c r="B676" s="25"/>
       <c r="C676" s="25"/>
@@ -24393,7 +24390,7 @@
       <c r="W676" s="25"/>
       <c r="X676" s="25"/>
     </row>
-    <row r="677" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="25"/>
       <c r="B677" s="25"/>
       <c r="C677" s="25"/>
@@ -24419,7 +24416,7 @@
       <c r="W677" s="25"/>
       <c r="X677" s="25"/>
     </row>
-    <row r="678" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="25"/>
       <c r="B678" s="25"/>
       <c r="C678" s="25"/>
@@ -24445,7 +24442,7 @@
       <c r="W678" s="25"/>
       <c r="X678" s="25"/>
     </row>
-    <row r="679" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="25"/>
       <c r="B679" s="25"/>
       <c r="C679" s="25"/>
@@ -24471,7 +24468,7 @@
       <c r="W679" s="25"/>
       <c r="X679" s="25"/>
     </row>
-    <row r="680" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="25"/>
       <c r="B680" s="25"/>
       <c r="C680" s="25"/>
@@ -24497,7 +24494,7 @@
       <c r="W680" s="25"/>
       <c r="X680" s="25"/>
     </row>
-    <row r="681" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="25"/>
       <c r="B681" s="25"/>
       <c r="C681" s="25"/>
@@ -24523,7 +24520,7 @@
       <c r="W681" s="25"/>
       <c r="X681" s="25"/>
     </row>
-    <row r="682" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="25"/>
       <c r="B682" s="25"/>
       <c r="C682" s="25"/>
@@ -24549,7 +24546,7 @@
       <c r="W682" s="25"/>
       <c r="X682" s="25"/>
     </row>
-    <row r="683" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="25"/>
       <c r="B683" s="25"/>
       <c r="C683" s="25"/>
@@ -24575,7 +24572,7 @@
       <c r="W683" s="25"/>
       <c r="X683" s="25"/>
     </row>
-    <row r="684" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="25"/>
       <c r="B684" s="25"/>
       <c r="C684" s="25"/>
@@ -24601,7 +24598,7 @@
       <c r="W684" s="25"/>
       <c r="X684" s="25"/>
     </row>
-    <row r="685" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="25"/>
       <c r="B685" s="25"/>
       <c r="C685" s="25"/>
@@ -24627,7 +24624,7 @@
       <c r="W685" s="25"/>
       <c r="X685" s="25"/>
     </row>
-    <row r="686" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="25"/>
       <c r="B686" s="25"/>
       <c r="C686" s="25"/>
@@ -24653,7 +24650,7 @@
       <c r="W686" s="25"/>
       <c r="X686" s="25"/>
     </row>
-    <row r="687" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="25"/>
       <c r="B687" s="25"/>
       <c r="C687" s="25"/>
@@ -24679,7 +24676,7 @@
       <c r="W687" s="25"/>
       <c r="X687" s="25"/>
     </row>
-    <row r="688" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="25"/>
       <c r="B688" s="25"/>
       <c r="C688" s="25"/>
@@ -24705,7 +24702,7 @@
       <c r="W688" s="25"/>
       <c r="X688" s="25"/>
     </row>
-    <row r="689" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="25"/>
       <c r="B689" s="25"/>
       <c r="C689" s="25"/>
@@ -24731,7 +24728,7 @@
       <c r="W689" s="25"/>
       <c r="X689" s="25"/>
     </row>
-    <row r="690" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="25"/>
       <c r="B690" s="25"/>
       <c r="C690" s="25"/>
@@ -24757,7 +24754,7 @@
       <c r="W690" s="25"/>
       <c r="X690" s="25"/>
     </row>
-    <row r="691" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="25"/>
       <c r="B691" s="25"/>
       <c r="C691" s="25"/>
@@ -24783,7 +24780,7 @@
       <c r="W691" s="25"/>
       <c r="X691" s="25"/>
     </row>
-    <row r="692" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="25"/>
       <c r="B692" s="25"/>
       <c r="C692" s="25"/>
@@ -24809,7 +24806,7 @@
       <c r="W692" s="25"/>
       <c r="X692" s="25"/>
     </row>
-    <row r="693" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="25"/>
       <c r="B693" s="25"/>
       <c r="C693" s="25"/>
@@ -24835,7 +24832,7 @@
       <c r="W693" s="25"/>
       <c r="X693" s="25"/>
     </row>
-    <row r="694" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="25"/>
       <c r="B694" s="25"/>
       <c r="C694" s="25"/>
@@ -24861,7 +24858,7 @@
       <c r="W694" s="25"/>
       <c r="X694" s="25"/>
     </row>
-    <row r="695" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="25"/>
       <c r="B695" s="25"/>
       <c r="C695" s="25"/>
@@ -24887,7 +24884,7 @@
       <c r="W695" s="25"/>
       <c r="X695" s="25"/>
     </row>
-    <row r="696" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="25"/>
       <c r="B696" s="25"/>
       <c r="C696" s="25"/>
@@ -24913,7 +24910,7 @@
       <c r="W696" s="25"/>
       <c r="X696" s="25"/>
     </row>
-    <row r="697" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="25"/>
       <c r="B697" s="25"/>
       <c r="C697" s="25"/>
@@ -24939,7 +24936,7 @@
       <c r="W697" s="25"/>
       <c r="X697" s="25"/>
     </row>
-    <row r="698" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="25"/>
       <c r="B698" s="25"/>
       <c r="C698" s="25"/>
@@ -24965,7 +24962,7 @@
       <c r="W698" s="25"/>
       <c r="X698" s="25"/>
     </row>
-    <row r="699" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="25"/>
       <c r="B699" s="25"/>
       <c r="C699" s="25"/>
@@ -24991,7 +24988,7 @@
       <c r="W699" s="25"/>
       <c r="X699" s="25"/>
     </row>
-    <row r="700" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="25"/>
       <c r="B700" s="25"/>
       <c r="C700" s="25"/>
@@ -25017,7 +25014,7 @@
       <c r="W700" s="25"/>
       <c r="X700" s="25"/>
     </row>
-    <row r="701" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="25"/>
       <c r="B701" s="25"/>
       <c r="C701" s="25"/>
@@ -25043,7 +25040,7 @@
       <c r="W701" s="25"/>
       <c r="X701" s="25"/>
     </row>
-    <row r="702" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="25"/>
       <c r="B702" s="25"/>
       <c r="C702" s="25"/>
@@ -25069,7 +25066,7 @@
       <c r="W702" s="25"/>
       <c r="X702" s="25"/>
     </row>
-    <row r="703" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="25"/>
       <c r="B703" s="25"/>
       <c r="C703" s="25"/>
@@ -25093,7 +25090,7 @@
       <c r="W703" s="25"/>
       <c r="X703" s="25"/>
     </row>
-    <row r="704" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="25"/>
       <c r="B704" s="25"/>
       <c r="C704" s="25"/>
@@ -25117,7 +25114,7 @@
       <c r="W704" s="25"/>
       <c r="X704" s="25"/>
     </row>
-    <row r="705" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="25"/>
       <c r="B705" s="25"/>
       <c r="C705" s="25"/>
@@ -25141,7 +25138,7 @@
       <c r="W705" s="25"/>
       <c r="X705" s="25"/>
     </row>
-    <row r="706" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="25"/>
       <c r="B706" s="25"/>
       <c r="C706" s="25"/>
@@ -25165,7 +25162,7 @@
       <c r="W706" s="25"/>
       <c r="X706" s="25"/>
     </row>
-    <row r="707" spans="1:24" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:24" s="2" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C707" s="25"/>
       <c r="J707" s="25"/>
       <c r="K707" s="25"/>
@@ -25187,21 +25184,21 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.8984375" style="26" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="26" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="26" customWidth="1"/>
     <col min="6" max="6" width="18" style="26" customWidth="1"/>
-    <col min="7" max="7" width="15.3984375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" style="26" customWidth="1"/>
-    <col min="9" max="10" width="14.09765625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="8.8984375" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="8.8984375" style="26"/>
+    <col min="7" max="7" width="15.33203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="26" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -25214,7 +25211,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -25227,7 +25224,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="29"/>
@@ -25256,7 +25253,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="36"/>
@@ -25266,26 +25263,26 @@
       <c r="E4" s="48">
         <v>15</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="84">
         <v>32</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="86">
         <v>276</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="86">
         <v>614</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="36"/>
@@ -25295,14 +25292,14 @@
       <c r="E5" s="48">
         <v>17</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="62"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="74"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="36"/>
@@ -25312,18 +25309,18 @@
       <c r="E6" s="48">
         <v>25</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="84">
         <v>81</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="62"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="82"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="87"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="36"/>
@@ -25333,14 +25330,14 @@
       <c r="E7" s="48">
         <v>25</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="62"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="76"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="87"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="36"/>
@@ -25350,14 +25347,14 @@
       <c r="E8" s="48">
         <v>31</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="77"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="87"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="36"/>
@@ -25367,18 +25364,18 @@
       <c r="E9" s="48">
         <v>15</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="84">
         <v>104</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="62"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="82"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="87"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="36"/>
@@ -25388,14 +25385,14 @@
       <c r="E10" s="48">
         <v>29</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="62"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="78"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="87"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="36"/>
@@ -25405,14 +25402,14 @@
       <c r="E11" s="48">
         <v>60</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="74"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="87"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="36"/>
@@ -25422,18 +25419,18 @@
       <c r="E12" s="48">
         <v>19</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="84">
         <v>59</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="82"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="87"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="36"/>
@@ -25443,14 +25440,14 @@
       <c r="E13" s="48">
         <v>15</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="62"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="67"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="87"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="36"/>
@@ -25460,14 +25457,14 @@
       <c r="E14" s="48">
         <v>11</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="67"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="87"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="36"/>
@@ -25477,14 +25474,14 @@
       <c r="E15" s="48">
         <v>14</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="62"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="80"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="87"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="36"/>
@@ -25494,22 +25491,22 @@
       <c r="E16" s="48">
         <v>17</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="86">
         <v>37</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="86">
         <v>210</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="62"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="89"/>
+      <c r="K16" s="87"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="36"/>
@@ -25519,14 +25516,14 @@
       <c r="E17" s="48">
         <v>20</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="62"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="78"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="87"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="36"/>
@@ -25542,12 +25539,12 @@
       <c r="G18" s="49">
         <v>35</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="62"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="69"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="87"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="36"/>
@@ -25563,12 +25560,12 @@
       <c r="G19" s="49">
         <v>30</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="62"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="69"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="87"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="36"/>
@@ -25578,18 +25575,18 @@
       <c r="E20" s="48">
         <v>18</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="86">
         <v>66</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="62"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="69"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="87"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="36"/>
@@ -25599,14 +25596,14 @@
       <c r="E21" s="48">
         <v>48</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="62"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="67"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="87"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="36"/>
@@ -25622,12 +25619,12 @@
       <c r="G22" s="49">
         <v>42</v>
       </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="62"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="69"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="87"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="36"/>
@@ -25643,16 +25640,16 @@
       <c r="G23" s="49">
         <v>28</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="86">
         <v>128</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="89"/>
+      <c r="K23" s="87"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="36"/>
@@ -25668,12 +25665,12 @@
       <c r="G24" s="49">
         <v>22</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="71"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="87"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="36"/>
@@ -25689,12 +25686,12 @@
       <c r="G25" s="49">
         <v>30</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="71"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="87"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="36"/>
@@ -25710,12 +25707,12 @@
       <c r="G26" s="49">
         <v>16</v>
       </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="71"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="87"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="36"/>
@@ -25731,13 +25728,18 @@
       <c r="G27" s="49">
         <v>32</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="62"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J4:J27"/>
+    <mergeCell ref="K4:K27"/>
+    <mergeCell ref="I4:I15"/>
+    <mergeCell ref="I16:I22"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="H16:H22"/>
     <mergeCell ref="H23:H27"/>
@@ -25753,11 +25755,6 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="J4:J27"/>
-    <mergeCell ref="K4:K27"/>
-    <mergeCell ref="I4:I15"/>
-    <mergeCell ref="I16:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
